--- a/sale_map.xlsx
+++ b/sale_map.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="745">
   <si>
     <t>STT</t>
   </si>
@@ -1670,13 +1670,589 @@
   </si>
   <si>
     <t>dig1n6suk8fs5tfkyl6vaulltmgxu40sxsxsg7g8sh</t>
+  </si>
+  <si>
+    <t>Mai Duc Trung</t>
+  </si>
+  <si>
+    <t>dig1vznsaevps3cvmnkhptgq6mgy5apxyutv45n0g4</t>
+  </si>
+  <si>
+    <t>AnhDao Nguyen</t>
+  </si>
+  <si>
+    <t>0x9de8E4a9781e73bEd8aeb3C33C7114B78828A2D4</t>
+  </si>
+  <si>
+    <t>Duy Phan</t>
+  </si>
+  <si>
+    <t>dig1y9vsv0mzkmv7hysnyqs5a937f758vjrq2tah0x</t>
+  </si>
+  <si>
+    <t>Dinh Canh</t>
+  </si>
+  <si>
+    <t>dig14jar88zyrcvxf43plhp9rq6u0hgjyrefme9cjq</t>
+  </si>
+  <si>
+    <t>Son Nguyen Thai</t>
+  </si>
+  <si>
+    <t>dig1s4t8lwqtrq38v54pw0q2z6dlvqdefge90xj8dd</t>
+  </si>
+  <si>
+    <t>hunghoxuan</t>
+  </si>
+  <si>
+    <t>dig1xa4p6tua7d5dkjhnzyhmu972e3qeeslkdycpmj</t>
+  </si>
+  <si>
+    <t>Mr Chinh TNY</t>
+  </si>
+  <si>
+    <t>dig1qvm4xehdth6cga507sh4rgz9nhj9s7nsu6wd6e</t>
+  </si>
+  <si>
+    <t>nganhuynh071082</t>
+  </si>
+  <si>
+    <t>dig1lgr22em4mseyp7gfm44gaa9wpd8juktxwm9xtj</t>
+  </si>
+  <si>
+    <t>Odile3</t>
+  </si>
+  <si>
+    <t>dig1s4zd09j9suhsvsfgun7r4nul5zfqujqlr4lpd9</t>
+  </si>
+  <si>
+    <t>thudong</t>
+  </si>
+  <si>
+    <t>dig108vejn9ztjwmss2gq3tzkvmc99gy373lmu4g78</t>
+  </si>
+  <si>
+    <t>Henrik Hanke</t>
+  </si>
+  <si>
+    <t>dig1503l4fu5ata8wn9df602h2qs4t04uexfttvehu</t>
+  </si>
+  <si>
+    <t>thisnthat</t>
+  </si>
+  <si>
+    <t>dig1r5wea6jumzstcvqu6c59nx9m9qyjkvyman3e77</t>
+  </si>
+  <si>
+    <t>dig1pf56z645ljfd43hzjfndmyjhn5waulu6nlzhuk</t>
+  </si>
+  <si>
+    <t>VU VAN MUI</t>
+  </si>
+  <si>
+    <t>dig1yl9xh82cc77mm2kqp4tq9xmqcct64vsx0cq2mq</t>
+  </si>
+  <si>
+    <t>Chi Yên</t>
+  </si>
+  <si>
+    <t>Chinh3</t>
+  </si>
+  <si>
+    <t>dig16mf3m45kd8vwaus8p0eynn670h0sccrw6drjxm</t>
+  </si>
+  <si>
+    <t>Manuel Weigand</t>
+  </si>
+  <si>
+    <t>dig10r9seuz2l8cw5x88w0ew286dfnt2grhfzkpc4s</t>
+  </si>
+  <si>
+    <t>Le Van Dam</t>
+  </si>
+  <si>
+    <t>dig17fxhq8g2ldul27cw0pqmc2mnj2pqf067rp4xe2</t>
+  </si>
+  <si>
+    <t>Chi Nhan</t>
+  </si>
+  <si>
+    <t>dig1ptggrk08l3gtlle9lf6s7p438ctj0vmqj4ac30</t>
+  </si>
+  <si>
+    <t>modollar</t>
+  </si>
+  <si>
+    <t>dig1g0x7sr4vtc0wgkr8q8zsvp5wfymxjfa82pyatq</t>
+  </si>
+  <si>
+    <t>Cong Bang Truong</t>
+  </si>
+  <si>
+    <t>dig12uqzsqf52ce2utwxv7st376uwjhddlexf6htdx</t>
+  </si>
+  <si>
+    <t>Doan Ngoc Quy</t>
+  </si>
+  <si>
+    <t>dig14jeyrwm0my7vt4erygg3q528g9rpueqmcpsjge</t>
+  </si>
+  <si>
+    <t>dig1yj33l28h9hdecu4vz67n6j0r4kxhvfewjvqvr3</t>
+  </si>
+  <si>
+    <t>Giang Yen</t>
+  </si>
+  <si>
+    <t>dig107nfrfwnys9unn0a0jznkkeepspnmvjj7qepel</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>dig1ey8uykt98rhg0teps3ggt07ppgh9xclaf75z49</t>
+  </si>
+  <si>
+    <t>Le Minh Trung</t>
+  </si>
+  <si>
+    <t>dig17s5vl22ksf0lzaz6df9g45w4q37nlt7c68705d</t>
+  </si>
+  <si>
+    <t>thanhvt</t>
+  </si>
+  <si>
+    <t>dig1jvpkwczxutfv8vu5cy2v7tn4sw8fhq2hng7nzw</t>
+  </si>
+  <si>
+    <t>odile5</t>
+  </si>
+  <si>
+    <t>dig1lvycpsauxyat65692g5v0z0cqlvha4029x230r</t>
+  </si>
+  <si>
+    <t>dig thiet02</t>
+  </si>
+  <si>
+    <t>dig12ha6www79gt8vk4qw6z850kynt9rgzcqxl86dq</t>
+  </si>
+  <si>
+    <t>jphung1993</t>
+  </si>
+  <si>
+    <t>dig vip 68</t>
+  </si>
+  <si>
+    <t>đào1</t>
+  </si>
+  <si>
+    <t>tuanlandalat</t>
+  </si>
+  <si>
+    <t>digthainguyen</t>
+  </si>
+  <si>
+    <t>dig1r77qe70y9swz02hpxawqfxlwjyeen8tscjumpy</t>
+  </si>
+  <si>
+    <t>tuan6690</t>
+  </si>
+  <si>
+    <t>toanmabu</t>
+  </si>
+  <si>
+    <t>thietthongthai</t>
+  </si>
+  <si>
+    <t>Manh Trinh</t>
+  </si>
+  <si>
+    <t>dig1qyewp7ysrn0gx6fuqpq4sfl5e3h7c7px9c5rj0</t>
+  </si>
+  <si>
+    <t>Zung Nguyen</t>
+  </si>
+  <si>
+    <t>dig1rhuhpva8nm8a8e9dym5q7wxy46eks242tyqeef</t>
+  </si>
+  <si>
+    <t>Van Duong Pham</t>
+  </si>
+  <si>
+    <t>dig1galyr6ezqh8q7zy5kuqc6mfc8cgsrw9dp9uhum</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>dig1x0jl4nv0yal4ss3d2jw4tvjpqse5vm2rl3wgwy</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>dig10zlutghfg7x85s8lusj2awgh0kcw35pwt27dly</t>
+  </si>
+  <si>
+    <t>Bao Bui Van</t>
+  </si>
+  <si>
+    <t>dig1ty9dfxj2hhhterqweafjukjl2p2zsk3csd9raf</t>
+  </si>
+  <si>
+    <t>Minh Trung Le</t>
+  </si>
+  <si>
+    <t>Ví Thu</t>
+  </si>
+  <si>
+    <t>Monmon</t>
+  </si>
+  <si>
+    <t>dig187suve5lamzjlxwzzvmxv7jmt77zlh2d6yf9je</t>
+  </si>
+  <si>
+    <t>Minh68</t>
+  </si>
+  <si>
+    <t>dig1u7uk0d9fwxa2m96xpdm40y32jhsqghd9r70hce</t>
+  </si>
+  <si>
+    <t>Xuan Le Hai</t>
+  </si>
+  <si>
+    <t>dig1vdfnfkagwg4x69f0u2anc9xq75v4hmdral9k3t</t>
+  </si>
+  <si>
+    <t>Chị Yến</t>
+  </si>
+  <si>
+    <t>Le Hai Xuan</t>
+  </si>
+  <si>
+    <t>Tuan Nghia</t>
+  </si>
+  <si>
+    <t>dig1758ygaxme7egc84wrhy53ffwec53yhtk0g3ddz</t>
+  </si>
+  <si>
+    <t>Kevin Henderson</t>
+  </si>
+  <si>
+    <t>dig1wf5fsm6895tclwjpasvazfn7vr08we9n3k2nqm</t>
+  </si>
+  <si>
+    <t>dig123</t>
+  </si>
+  <si>
+    <t>socat0512</t>
+  </si>
+  <si>
+    <t>dig17tucq30639hg3ug0wzpkzd4y2cag72672j9g0m</t>
+  </si>
+  <si>
+    <t>Ha Dinh Tung</t>
+  </si>
+  <si>
+    <t>dig1pf940eju50trv7tsvfz3g97fsa5rc2zfuxdr0u</t>
+  </si>
+  <si>
+    <t>Nguyen Phương Tin</t>
+  </si>
+  <si>
+    <t>dig15mk5dvatuc6ay5gx8l088tmyf94z6lun2832ej</t>
+  </si>
+  <si>
+    <t>Hong Hai Nguyen</t>
+  </si>
+  <si>
+    <t>dig1ge5e59fmdrlw03cssmte30jxkd9xgf4u8kkkme</t>
+  </si>
+  <si>
+    <t>Ngo Ngoc Son</t>
+  </si>
+  <si>
+    <t>dig1268gkx9c2n5pdjrdws879cfypx8ntcudn23ldq</t>
+  </si>
+  <si>
+    <t>Vo Hong Dat</t>
+  </si>
+  <si>
+    <t>dig1lykyf43e57l9j0y84twgg2gm73k06lqak9kmuc</t>
+  </si>
+  <si>
+    <t>Patrice Amoussoun</t>
+  </si>
+  <si>
+    <t>dig14gsu8wlp8jf3k9aa456r8c4muu2rpk4uh7ysyv</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Anh Dao</t>
+  </si>
+  <si>
+    <t>Van88</t>
+  </si>
+  <si>
+    <t>dig1wfz4a46wytahtmrj24pf8w5gjfwygkd23rc65n</t>
+  </si>
+  <si>
+    <t>KhoaKHF</t>
+  </si>
+  <si>
+    <t>Huong Hung</t>
+  </si>
+  <si>
+    <t>dig14pqmrhn4led38m7vl5q3s23036vez5u2843xun</t>
+  </si>
+  <si>
+    <t>Thanhvt</t>
+  </si>
+  <si>
+    <t>LoanVIN</t>
+  </si>
+  <si>
+    <t>dig13ay829j6r8ze6atzq80g8gygkt86lal7y82mc9</t>
+  </si>
+  <si>
+    <t>Xuan Vu</t>
+  </si>
+  <si>
+    <t>dig1t872sstaa7p07730pe4dp6lwyl6t2h7d5gmhdv</t>
+  </si>
+  <si>
+    <t>Thai Thinh</t>
+  </si>
+  <si>
+    <t>dig1p06wachgev3x3z4xat8u04t66dfhan2ctmdagp</t>
+  </si>
+  <si>
+    <t>HOABINH</t>
+  </si>
+  <si>
+    <t>dig1jzhcgk64cudumxjaqlmv8h04jghz5vz5ythwar</t>
+  </si>
+  <si>
+    <t>Toan Vo</t>
+  </si>
+  <si>
+    <t>dig1cqw2yr70j57757vf4ppekfwtqanf0gvmfn8g82</t>
+  </si>
+  <si>
+    <t>Dzigbordi Ntow</t>
+  </si>
+  <si>
+    <t>dig1fvu5cqaxkjcw868cmfe6fr9cnuazwllunmgnpz</t>
+  </si>
+  <si>
+    <t>dig1ddnjf5dds495wv628y8p4zjw4n3tarhlgzcp90</t>
+  </si>
+  <si>
+    <t>DOHONGTUAN</t>
+  </si>
+  <si>
+    <t>dig1xkky5gxuf07lcfhtlzctcmuu99lephn6ych6q8</t>
+  </si>
+  <si>
+    <t>DIG111</t>
+  </si>
+  <si>
+    <t>dig1fuzpcwmlspulzwvde077qvl94pvq4dqp9uzlr7</t>
+  </si>
+  <si>
+    <t>Giang Yen2</t>
+  </si>
+  <si>
+    <t>DungTp</t>
+  </si>
+  <si>
+    <t>dig13dmue6xken3gw9d96c32psegewyfrcnurq8kzh</t>
+  </si>
+  <si>
+    <t>Ban Anh Dung</t>
+  </si>
+  <si>
+    <t>dig1w7p3h0fuhxj6zealuywn06z9pcx5pz0kuexgdk</t>
+  </si>
+  <si>
+    <t>trunghieu1211</t>
+  </si>
+  <si>
+    <t>dig1c7x8eqdglae5yrwczsdgvq3pngwewnusxctqqw</t>
+  </si>
+  <si>
+    <t>Van Anh Vo</t>
+  </si>
+  <si>
+    <t>dig15sqgqm67a2x7g5twm6c0g88cpu0cnethl7j2az</t>
+  </si>
+  <si>
+    <t>Thuong Ta</t>
+  </si>
+  <si>
+    <t>dig1q4nwknvrlfa9wptx68g3vvr7usc6vje9vkjegf</t>
+  </si>
+  <si>
+    <t>Nguyen Hung</t>
+  </si>
+  <si>
+    <t>dig1fsexp8fanj20r72cmq4p8sfnyn86hzuqgxpvwc</t>
+  </si>
+  <si>
+    <t>Nhanh Nhanh</t>
+  </si>
+  <si>
+    <t>Nguyen Hong Hai</t>
+  </si>
+  <si>
+    <t>Thương Ta</t>
+  </si>
+  <si>
+    <t>Ví Thieu</t>
+  </si>
+  <si>
+    <t>phan do</t>
+  </si>
+  <si>
+    <t>dig1xtkyqsanx33fn6sqxz92rq5r2t3yktzrlgdl9q</t>
+  </si>
+  <si>
+    <t>đào 1</t>
+  </si>
+  <si>
+    <t>kami dig</t>
+  </si>
+  <si>
+    <t>dig12tzqp8ex2ph7txcrvgxuqs6xwm7cy4pmu2ake6</t>
+  </si>
+  <si>
+    <t>SANS - DIG I</t>
+  </si>
+  <si>
+    <t>dig1ecde6unkj4dhk5p3vy5hq43qq2fzzn626x4h9z</t>
+  </si>
+  <si>
+    <t>hirutran</t>
+  </si>
+  <si>
+    <t>dig1m6t3lledcny7guxqz4a693jvk7pudncrc3r6yc</t>
+  </si>
+  <si>
+    <t>Nghiem Sy Hoang</t>
+  </si>
+  <si>
+    <t>dig1swkp0tfr2qz7zl9vwe5gegsummm9934ksh0a4r</t>
+  </si>
+  <si>
+    <t>NGUYEN 2</t>
+  </si>
+  <si>
+    <t>dig1y4rmq3mkpy7975sm4wpnr0fl0phfjy8a23jcp2</t>
+  </si>
+  <si>
+    <t>Tạ Thường</t>
+  </si>
+  <si>
+    <t>Thanh Huyen Mai</t>
+  </si>
+  <si>
+    <t>cosmos16m6l7jmjwvgmcm7eyantz93ccyxpevwdxprkgk</t>
+  </si>
+  <si>
+    <t>Abisi Emmy</t>
+  </si>
+  <si>
+    <t>dig1gev7lx54c869vp2ksks8z0ng00xhfvuz47m8d2</t>
+  </si>
+  <si>
+    <t>Son The Pham</t>
+  </si>
+  <si>
+    <t>dig13hgm6wlvmxna5jsuprh33e02uwhel7ppcq6gt4</t>
+  </si>
+  <si>
+    <t>Linh Nguyen The</t>
+  </si>
+  <si>
+    <t>dig1tkny9dl3xwfxm4d33n4lta58uy9fa55jr60rrl</t>
+  </si>
+  <si>
+    <t>Rj Rk</t>
+  </si>
+  <si>
+    <t>lê tùng</t>
+  </si>
+  <si>
+    <t>dig18q2z0eh0x90sd6t4xw4rpmpgd6ja9608cmfsym</t>
+  </si>
+  <si>
+    <t>odile6</t>
+  </si>
+  <si>
+    <t>dig1fghm88r4drmgr6ddshz8sf6qqg9qu77c7zpk8v</t>
+  </si>
+  <si>
+    <t>taitumin</t>
+  </si>
+  <si>
+    <t>lananhhy</t>
+  </si>
+  <si>
+    <t>hoanglan1228</t>
+  </si>
+  <si>
+    <t>Hong Vu</t>
+  </si>
+  <si>
+    <t>dig1tqhffw5l20u7ehlzhnzd6ccqj8f00l0am94pq4</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>dig1lfzx8c747cxqr8vazwalmwytjmqh6vhd35t9rp</t>
+  </si>
+  <si>
+    <t>Hoang Trong Toan</t>
+  </si>
+  <si>
+    <t>dig14rn2wj00l4pcnql6l5j76lv6386rzuupfw09pv</t>
+  </si>
+  <si>
+    <t>PhuTho</t>
+  </si>
+  <si>
+    <t>dig1gewaj7zhs5ngluve82vjxhmh5lctnsy2fnf6ff</t>
+  </si>
+  <si>
+    <t>SocSon</t>
+  </si>
+  <si>
+    <t>Ha Manh Tinh</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>dig1l94lk8vd2avfy3gagau06py38yyeq77gmrnz8k</t>
+  </si>
+  <si>
+    <t>Tien Dung</t>
+  </si>
+  <si>
+    <t>Em Nghĩa</t>
+  </si>
+  <si>
+    <t>SaiGon</t>
+  </si>
+  <si>
+    <t>Baoloc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1763,8 +2339,43 @@
       <color rgb="FF18191B"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF18191B"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF252525"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1789,6 +2400,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -1810,7 +2427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1907,8 +2524,48 @@
     <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
@@ -6693,2226 +7350,3841 @@
       <c r="E304" s="17"/>
     </row>
     <row r="305">
-      <c r="A305" s="5"/>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-      <c r="D305" s="32"/>
-      <c r="E305" s="17"/>
+      <c r="A305" s="5">
+        <v>304.0</v>
+      </c>
+      <c r="B305" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="C305" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="D305" s="33">
+        <v>84000.0</v>
+      </c>
+      <c r="E305" s="34"/>
     </row>
     <row r="306">
-      <c r="A306" s="5"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
-      <c r="D306" s="32"/>
-      <c r="E306" s="17"/>
+      <c r="A306" s="5">
+        <v>305.0</v>
+      </c>
+      <c r="B306" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C306" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D306" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E306" s="34"/>
     </row>
     <row r="307">
-      <c r="A307" s="5"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
-      <c r="D307" s="32"/>
-      <c r="E307" s="17"/>
+      <c r="A307" s="5">
+        <v>306.0</v>
+      </c>
+      <c r="B307" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C307" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D307" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E307" s="34"/>
     </row>
     <row r="308">
-      <c r="A308" s="5"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
-      <c r="D308" s="32"/>
-      <c r="E308" s="17"/>
+      <c r="A308" s="5">
+        <v>307.0</v>
+      </c>
+      <c r="B308" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="D308" s="33">
+        <v>666666.0</v>
+      </c>
+      <c r="E308" s="34"/>
     </row>
     <row r="309">
-      <c r="A309" s="5"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
-      <c r="D309" s="32"/>
-      <c r="E309" s="17"/>
+      <c r="A309" s="5">
+        <v>308.0</v>
+      </c>
+      <c r="B309" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D309" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E309" s="34"/>
     </row>
     <row r="310">
-      <c r="A310" s="5"/>
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
-      <c r="D310" s="32"/>
-      <c r="E310" s="17"/>
+      <c r="A310" s="5">
+        <v>309.0</v>
+      </c>
+      <c r="B310" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C310" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D310" s="33">
+        <v>10000.0</v>
+      </c>
+      <c r="E310" s="34"/>
     </row>
     <row r="311">
-      <c r="A311" s="5"/>
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
-      <c r="D311" s="32"/>
-      <c r="E311" s="17"/>
+      <c r="A311" s="5">
+        <v>310.0</v>
+      </c>
+      <c r="B311" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C311" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="D311" s="33">
+        <v>15000.0</v>
+      </c>
+      <c r="E311" s="34"/>
     </row>
     <row r="312">
-      <c r="A312" s="5"/>
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
-      <c r="D312" s="32"/>
-      <c r="E312" s="17"/>
+      <c r="A312" s="5">
+        <v>311.0</v>
+      </c>
+      <c r="B312" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="D312" s="33">
+        <v>21200.0</v>
+      </c>
+      <c r="E312" s="34"/>
     </row>
     <row r="313">
-      <c r="A313" s="5"/>
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
-      <c r="D313" s="32"/>
-      <c r="E313" s="17"/>
+      <c r="A313" s="5">
+        <v>312.0</v>
+      </c>
+      <c r="B313" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="D313" s="33">
+        <v>15000.0</v>
+      </c>
+      <c r="E313" s="34"/>
     </row>
     <row r="314">
-      <c r="A314" s="5"/>
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
-      <c r="D314" s="32"/>
-      <c r="E314" s="17"/>
+      <c r="A314" s="5">
+        <v>313.0</v>
+      </c>
+      <c r="B314" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C314" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="D314" s="33">
+        <v>84733.0</v>
+      </c>
+      <c r="E314" s="34"/>
     </row>
     <row r="315">
-      <c r="A315" s="5"/>
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
-      <c r="D315" s="32"/>
-      <c r="E315" s="17"/>
+      <c r="A315" s="5">
+        <v>314.0</v>
+      </c>
+      <c r="B315" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C315" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D315" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E315" s="34"/>
     </row>
     <row r="316">
-      <c r="A316" s="5"/>
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
-      <c r="D316" s="32"/>
-      <c r="E316" s="17"/>
+      <c r="A316" s="5">
+        <v>315.0</v>
+      </c>
+      <c r="B316" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="C316" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D316" s="33">
+        <v>25000.0</v>
+      </c>
+      <c r="E316" s="34"/>
     </row>
     <row r="317">
-      <c r="A317" s="5"/>
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
-      <c r="D317" s="32"/>
-      <c r="E317" s="17"/>
+      <c r="A317" s="5">
+        <v>316.0</v>
+      </c>
+      <c r="B317" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="C317" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="D317" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E317" s="34"/>
     </row>
     <row r="318">
-      <c r="A318" s="5"/>
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
-      <c r="D318" s="32"/>
-      <c r="E318" s="17"/>
+      <c r="A318" s="5">
+        <v>317.0</v>
+      </c>
+      <c r="B318" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C318" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="D318" s="33">
+        <v>10000.0</v>
+      </c>
+      <c r="E318" s="34"/>
     </row>
     <row r="319">
-      <c r="A319" s="5"/>
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
-      <c r="D319" s="32"/>
-      <c r="E319" s="17"/>
+      <c r="A319" s="5">
+        <v>318.0</v>
+      </c>
+      <c r="B319" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="C319" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D319" s="33">
+        <v>106500.0</v>
+      </c>
+      <c r="E319" s="34"/>
     </row>
     <row r="320">
-      <c r="A320" s="5"/>
-      <c r="B320" s="17"/>
-      <c r="C320" s="17"/>
-      <c r="D320" s="32"/>
-      <c r="E320" s="17"/>
+      <c r="A320" s="5">
+        <v>319.0</v>
+      </c>
+      <c r="B320" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="C320" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D320" s="33">
+        <v>33333.0</v>
+      </c>
+      <c r="E320" s="34"/>
     </row>
     <row r="321">
-      <c r="A321" s="5"/>
-      <c r="B321" s="17"/>
-      <c r="C321" s="17"/>
-      <c r="D321" s="32"/>
-      <c r="E321" s="17"/>
+      <c r="A321" s="5">
+        <v>320.0</v>
+      </c>
+      <c r="B321" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="C321" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D321" s="33">
+        <v>400000.0</v>
+      </c>
+      <c r="E321" s="34"/>
     </row>
     <row r="322">
-      <c r="A322" s="5"/>
-      <c r="B322" s="17"/>
-      <c r="C322" s="17"/>
-      <c r="D322" s="32"/>
-      <c r="E322" s="17"/>
+      <c r="A322" s="5">
+        <v>321.0</v>
+      </c>
+      <c r="B322" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C322" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="D322" s="33">
+        <v>8000.0</v>
+      </c>
+      <c r="E322" s="34"/>
     </row>
     <row r="323">
-      <c r="A323" s="5"/>
-      <c r="B323" s="17"/>
-      <c r="C323" s="17"/>
-      <c r="D323" s="32"/>
-      <c r="E323" s="17"/>
+      <c r="A323" s="5">
+        <v>322.0</v>
+      </c>
+      <c r="B323" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="C323" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="D323" s="33">
+        <v>10000.0</v>
+      </c>
+      <c r="E323" s="34"/>
     </row>
     <row r="324">
-      <c r="A324" s="5"/>
-      <c r="B324" s="17"/>
-      <c r="C324" s="17"/>
-      <c r="D324" s="32"/>
-      <c r="E324" s="17"/>
+      <c r="A324" s="5">
+        <v>323.0</v>
+      </c>
+      <c r="B324" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C324" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="D324" s="33">
+        <v>16666.0</v>
+      </c>
+      <c r="E324" s="34"/>
     </row>
     <row r="325">
-      <c r="A325" s="5"/>
-      <c r="B325" s="17"/>
-      <c r="C325" s="17"/>
-      <c r="D325" s="32"/>
-      <c r="E325" s="17"/>
+      <c r="A325" s="5">
+        <v>324.0</v>
+      </c>
+      <c r="B325" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C325" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="D325" s="33">
+        <v>70000.0</v>
+      </c>
+      <c r="E325" s="34"/>
     </row>
     <row r="326">
-      <c r="A326" s="5"/>
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
-      <c r="D326" s="32"/>
-      <c r="E326" s="17"/>
+      <c r="A326" s="5">
+        <v>325.0</v>
+      </c>
+      <c r="B326" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="C326" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="D326" s="33">
+        <v>133333.0</v>
+      </c>
+      <c r="E326" s="34"/>
     </row>
     <row r="327">
-      <c r="A327" s="5"/>
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
-      <c r="D327" s="32"/>
-      <c r="E327" s="17"/>
+      <c r="A327" s="5">
+        <v>326.0</v>
+      </c>
+      <c r="B327" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C327" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="D327" s="33">
+        <v>6666.0</v>
+      </c>
+      <c r="E327" s="34"/>
     </row>
     <row r="328">
-      <c r="A328" s="5"/>
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
-      <c r="D328" s="32"/>
-      <c r="E328" s="17"/>
+      <c r="A328" s="5">
+        <v>327.0</v>
+      </c>
+      <c r="B328" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="C328" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D328" s="33">
+        <v>208512.0</v>
+      </c>
+      <c r="E328" s="34"/>
     </row>
     <row r="329">
-      <c r="A329" s="5"/>
-      <c r="B329" s="17"/>
-      <c r="C329" s="17"/>
-      <c r="D329" s="32"/>
-      <c r="E329" s="17"/>
+      <c r="A329" s="5">
+        <v>328.0</v>
+      </c>
+      <c r="B329" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C329" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D329" s="33">
+        <v>600000.0</v>
+      </c>
+      <c r="E329" s="34"/>
     </row>
     <row r="330">
-      <c r="A330" s="5"/>
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
-      <c r="D330" s="32"/>
-      <c r="E330" s="17"/>
+      <c r="A330" s="5">
+        <v>329.0</v>
+      </c>
+      <c r="B330" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C330" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D330" s="33">
+        <v>40000.0</v>
+      </c>
+      <c r="E330" s="34"/>
     </row>
     <row r="331">
-      <c r="A331" s="5"/>
-      <c r="D331" s="33"/>
+      <c r="A331" s="5">
+        <v>330.0</v>
+      </c>
+      <c r="B331" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C331" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D331" s="33">
+        <v>599994.0</v>
+      </c>
+      <c r="E331" s="41"/>
     </row>
     <row r="332">
-      <c r="A332" s="5"/>
-      <c r="D332" s="33"/>
+      <c r="A332" s="5">
+        <v>331.0</v>
+      </c>
+      <c r="B332" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C332" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D332" s="33">
+        <v>266664.0</v>
+      </c>
+      <c r="E332" s="41"/>
     </row>
     <row r="333">
-      <c r="A333" s="5"/>
-      <c r="D333" s="33"/>
+      <c r="A333" s="5">
+        <v>332.0</v>
+      </c>
+      <c r="B333" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="C333" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D333" s="33">
+        <v>666666.0</v>
+      </c>
+      <c r="E333" s="41"/>
     </row>
     <row r="334">
-      <c r="A334" s="5"/>
-      <c r="D334" s="33"/>
+      <c r="A334" s="5">
+        <v>333.0</v>
+      </c>
+      <c r="B334" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="C334" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D334" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E334" s="41"/>
     </row>
     <row r="335">
-      <c r="A335" s="5"/>
-      <c r="D335" s="33"/>
+      <c r="A335" s="5">
+        <v>334.0</v>
+      </c>
+      <c r="B335" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C335" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D335" s="33">
+        <v>785000.0</v>
+      </c>
+      <c r="E335" s="41"/>
     </row>
     <row r="336">
-      <c r="A336" s="5"/>
-      <c r="D336" s="33"/>
+      <c r="A336" s="5">
+        <v>335.0</v>
+      </c>
+      <c r="B336" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C336" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D336" s="33">
+        <v>183200.0</v>
+      </c>
+      <c r="E336" s="41"/>
     </row>
     <row r="337">
-      <c r="A337" s="5"/>
-      <c r="D337" s="33"/>
+      <c r="A337" s="5">
+        <v>336.0</v>
+      </c>
+      <c r="B337" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C337" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D337" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E337" s="41"/>
     </row>
     <row r="338">
-      <c r="A338" s="5"/>
-      <c r="D338" s="33"/>
+      <c r="A338" s="5">
+        <v>337.0</v>
+      </c>
+      <c r="B338" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C338" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D338" s="33">
+        <v>133333.0</v>
+      </c>
+      <c r="E338" s="41"/>
     </row>
     <row r="339">
-      <c r="A339" s="5"/>
-      <c r="D339" s="33"/>
+      <c r="A339" s="5">
+        <v>338.0</v>
+      </c>
+      <c r="B339" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C339" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D339" s="33">
+        <v>33333.0</v>
+      </c>
+      <c r="E339" s="41"/>
     </row>
     <row r="340">
-      <c r="A340" s="5"/>
-      <c r="D340" s="33"/>
+      <c r="A340" s="5">
+        <v>339.0</v>
+      </c>
+      <c r="B340" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="C340" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D340" s="33">
+        <v>130933.0</v>
+      </c>
+      <c r="E340" s="41"/>
     </row>
     <row r="341">
-      <c r="A341" s="5"/>
-      <c r="D341" s="33"/>
+      <c r="A341" s="5">
+        <v>340.0</v>
+      </c>
+      <c r="B341" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C341" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D341" s="33">
+        <v>333333.0</v>
+      </c>
+      <c r="E341" s="41"/>
     </row>
     <row r="342">
-      <c r="A342" s="5"/>
-      <c r="D342" s="33"/>
+      <c r="A342" s="5">
+        <v>341.0</v>
+      </c>
+      <c r="B342" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="C342" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D342" s="33">
+        <v>16667.0</v>
+      </c>
+      <c r="E342" s="41"/>
     </row>
     <row r="343">
-      <c r="A343" s="5"/>
-      <c r="D343" s="33"/>
+      <c r="A343" s="5">
+        <v>342.0</v>
+      </c>
+      <c r="B343" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="C343" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D343" s="33">
+        <v>33333.0</v>
+      </c>
+      <c r="E343" s="41"/>
     </row>
     <row r="344">
-      <c r="A344" s="5"/>
-      <c r="D344" s="33"/>
+      <c r="A344" s="5">
+        <v>343.0</v>
+      </c>
+      <c r="B344" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="C344" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D344" s="33">
+        <v>66667.0</v>
+      </c>
+      <c r="E344" s="41"/>
     </row>
     <row r="345">
-      <c r="A345" s="5"/>
-      <c r="D345" s="33"/>
+      <c r="A345" s="5">
+        <v>344.0</v>
+      </c>
+      <c r="B345" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C345" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D345" s="33">
+        <v>6667.0</v>
+      </c>
+      <c r="E345" s="41"/>
     </row>
     <row r="346">
-      <c r="A346" s="5"/>
-      <c r="D346" s="33"/>
+      <c r="A346" s="5">
+        <v>345.0</v>
+      </c>
+      <c r="B346" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C346" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="D346" s="33">
+        <v>300000.0</v>
+      </c>
+      <c r="E346" s="41"/>
     </row>
     <row r="347">
-      <c r="A347" s="5"/>
-      <c r="D347" s="33"/>
+      <c r="A347" s="5">
+        <v>346.0</v>
+      </c>
+      <c r="B347" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C347" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="D347" s="33">
+        <v>6666.0</v>
+      </c>
+      <c r="E347" s="41"/>
     </row>
     <row r="348">
-      <c r="A348" s="5"/>
-      <c r="D348" s="33"/>
+      <c r="A348" s="5">
+        <v>347.0</v>
+      </c>
+      <c r="B348" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C348" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="D348" s="33">
+        <v>13333.0</v>
+      </c>
+      <c r="E348" s="41"/>
     </row>
     <row r="349">
-      <c r="A349" s="5"/>
-      <c r="D349" s="33"/>
+      <c r="A349" s="5">
+        <v>348.0</v>
+      </c>
+      <c r="B349" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C349" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="D349" s="33">
+        <v>10000.0</v>
+      </c>
+      <c r="E349" s="41"/>
     </row>
     <row r="350">
-      <c r="A350" s="5"/>
-      <c r="D350" s="33"/>
+      <c r="A350" s="5">
+        <v>349.0</v>
+      </c>
+      <c r="B350" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C350" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D350" s="33">
+        <v>30000.0</v>
+      </c>
+      <c r="E350" s="41"/>
     </row>
     <row r="351">
-      <c r="A351" s="5"/>
-      <c r="D351" s="33"/>
+      <c r="A351" s="5">
+        <v>350.0</v>
+      </c>
+      <c r="B351" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C351" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="D351" s="33">
+        <v>6666.0</v>
+      </c>
+      <c r="E351" s="41"/>
     </row>
     <row r="352">
-      <c r="A352" s="5"/>
-      <c r="D352" s="33"/>
+      <c r="A352" s="5">
+        <v>351.0</v>
+      </c>
+      <c r="B352" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C352" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D352" s="33">
+        <v>10000.0</v>
+      </c>
+      <c r="E352" s="41"/>
     </row>
     <row r="353">
-      <c r="A353" s="5"/>
-      <c r="D353" s="33"/>
+      <c r="A353" s="5">
+        <v>352.0</v>
+      </c>
+      <c r="B353" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C353" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="D353" s="33">
+        <v>166666.0</v>
+      </c>
+      <c r="E353" s="41"/>
     </row>
     <row r="354">
-      <c r="A354" s="5"/>
-      <c r="D354" s="33"/>
+      <c r="A354" s="5">
+        <v>353.0</v>
+      </c>
+      <c r="B354" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C354" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="D354" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E354" s="41"/>
     </row>
     <row r="355">
-      <c r="A355" s="5"/>
-      <c r="D355" s="33"/>
+      <c r="A355" s="5">
+        <v>354.0</v>
+      </c>
+      <c r="B355" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C355" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="D355" s="33">
+        <v>40000.0</v>
+      </c>
+      <c r="E355" s="41"/>
     </row>
     <row r="356">
-      <c r="A356" s="5"/>
-      <c r="D356" s="33"/>
+      <c r="A356" s="5">
+        <v>355.0</v>
+      </c>
+      <c r="B356" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="C356" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="D356" s="33">
+        <v>150000.0</v>
+      </c>
+      <c r="E356" s="41"/>
     </row>
     <row r="357">
-      <c r="A357" s="5"/>
-      <c r="D357" s="33"/>
+      <c r="A357" s="5">
+        <v>356.0</v>
+      </c>
+      <c r="B357" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C357" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D357" s="33">
+        <v>150000.0</v>
+      </c>
+      <c r="E357" s="41"/>
     </row>
     <row r="358">
-      <c r="A358" s="5"/>
-      <c r="D358" s="33"/>
+      <c r="A358" s="5">
+        <v>357.0</v>
+      </c>
+      <c r="B358" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="C358" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="D358" s="33">
+        <v>1092234.0</v>
+      </c>
+      <c r="E358" s="41"/>
     </row>
     <row r="359">
-      <c r="A359" s="5"/>
-      <c r="D359" s="33"/>
+      <c r="A359" s="5">
+        <v>358.0</v>
+      </c>
+      <c r="B359" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C359" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D359" s="42">
+        <v>5200.0</v>
+      </c>
+      <c r="E359" s="41"/>
     </row>
     <row r="360">
-      <c r="A360" s="5"/>
-      <c r="D360" s="33"/>
+      <c r="A360" s="5">
+        <v>359.0</v>
+      </c>
+      <c r="B360" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C360" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D360" s="42">
+        <v>28733.0</v>
+      </c>
+      <c r="E360" s="41"/>
     </row>
     <row r="361">
-      <c r="A361" s="5"/>
-      <c r="D361" s="33"/>
+      <c r="A361" s="5">
+        <v>360.0</v>
+      </c>
+      <c r="B361" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C361" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="D361" s="42">
+        <v>7000.0</v>
+      </c>
+      <c r="E361" s="41"/>
     </row>
     <row r="362">
-      <c r="A362" s="5"/>
-      <c r="D362" s="33"/>
+      <c r="A362" s="5">
+        <v>361.0</v>
+      </c>
+      <c r="B362" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="C362" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="D362" s="42">
+        <v>37734.0</v>
+      </c>
+      <c r="E362" s="41"/>
     </row>
     <row r="363">
-      <c r="A363" s="5"/>
-      <c r="D363" s="33"/>
+      <c r="A363" s="5">
+        <v>362.0</v>
+      </c>
+      <c r="B363" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="C363" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="D363" s="33">
+        <v>500000.0</v>
+      </c>
+      <c r="E363" s="41"/>
     </row>
     <row r="364">
-      <c r="D364" s="33"/>
+      <c r="A364" s="5">
+        <v>363.0</v>
+      </c>
+      <c r="B364" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="C364" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="D364" s="33">
+        <v>15000.0</v>
+      </c>
+      <c r="E364" s="41"/>
     </row>
     <row r="365">
-      <c r="D365" s="33"/>
+      <c r="A365" s="5">
+        <v>364.0</v>
+      </c>
+      <c r="B365" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="C365" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D365" s="33">
+        <v>33333.0</v>
+      </c>
+      <c r="E365" s="41"/>
     </row>
     <row r="366">
-      <c r="D366" s="33"/>
+      <c r="A366" s="5">
+        <v>365.0</v>
+      </c>
+      <c r="B366" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="C366" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D366" s="33">
+        <v>15000.0</v>
+      </c>
+      <c r="E366" s="41"/>
     </row>
     <row r="367">
-      <c r="D367" s="33"/>
+      <c r="A367" s="5">
+        <v>366.0</v>
+      </c>
+      <c r="B367" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="C367" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="D367" s="33">
+        <v>3333.0</v>
+      </c>
+      <c r="E367" s="41"/>
     </row>
     <row r="368">
-      <c r="D368" s="33"/>
+      <c r="A368" s="5">
+        <v>367.0</v>
+      </c>
+      <c r="B368" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="C368" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="D368" s="33">
+        <v>66666.0</v>
+      </c>
+      <c r="E368" s="41"/>
     </row>
     <row r="369">
-      <c r="D369" s="33"/>
+      <c r="A369" s="5">
+        <v>368.0</v>
+      </c>
+      <c r="B369" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="C369" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D369" s="33">
+        <v>66667.0</v>
+      </c>
+      <c r="E369" s="41"/>
     </row>
     <row r="370">
-      <c r="D370" s="33"/>
+      <c r="A370" s="5">
+        <v>369.0</v>
+      </c>
+      <c r="B370" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="C370" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D370" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E370" s="41"/>
     </row>
     <row r="371">
-      <c r="D371" s="33"/>
+      <c r="A371" s="5">
+        <v>370.0</v>
+      </c>
+      <c r="B371" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C371" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D371" s="33">
+        <v>42133.0</v>
+      </c>
+      <c r="E371" s="41"/>
     </row>
     <row r="372">
-      <c r="D372" s="33"/>
+      <c r="A372" s="5">
+        <v>371.0</v>
+      </c>
+      <c r="B372" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="C372" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="D372" s="33">
+        <v>62333.0</v>
+      </c>
+      <c r="E372" s="41"/>
     </row>
     <row r="373">
-      <c r="D373" s="33"/>
+      <c r="A373" s="5">
+        <v>372.0</v>
+      </c>
+      <c r="B373" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="C373" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D373" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E373" s="41"/>
     </row>
     <row r="374">
-      <c r="D374" s="33"/>
+      <c r="A374" s="5">
+        <v>373.0</v>
+      </c>
+      <c r="B374" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="C374" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="D374" s="33">
+        <v>7000.0</v>
+      </c>
+      <c r="E374" s="41"/>
     </row>
     <row r="375">
-      <c r="D375" s="33"/>
+      <c r="A375" s="5">
+        <v>374.0</v>
+      </c>
+      <c r="B375" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C375" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="D375" s="33">
+        <v>2333.0</v>
+      </c>
+      <c r="E375" s="41"/>
     </row>
     <row r="376">
-      <c r="D376" s="33"/>
+      <c r="A376" s="5">
+        <v>375.0</v>
+      </c>
+      <c r="B376" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D376" s="33">
+        <v>46667.0</v>
+      </c>
+      <c r="E376" s="41"/>
     </row>
     <row r="377">
-      <c r="D377" s="33"/>
+      <c r="A377" s="5">
+        <v>376.0</v>
+      </c>
+      <c r="B377" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="C377" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="D377" s="42">
+        <v>66666.0</v>
+      </c>
+      <c r="E377" s="41"/>
     </row>
     <row r="378">
-      <c r="D378" s="33"/>
+      <c r="A378" s="5">
+        <v>377.0</v>
+      </c>
+      <c r="B378" s="35" t="s">
+        <v>650</v>
+      </c>
+      <c r="C378" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="D378" s="42">
+        <v>20000.0</v>
+      </c>
+      <c r="E378" s="41"/>
     </row>
     <row r="379">
-      <c r="D379" s="33"/>
+      <c r="A379" s="5">
+        <v>378.0</v>
+      </c>
+      <c r="B379" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="C379" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="D379" s="42">
+        <v>3333.0</v>
+      </c>
+      <c r="E379" s="41"/>
     </row>
     <row r="380">
-      <c r="D380" s="33"/>
+      <c r="A380" s="5">
+        <v>379.0</v>
+      </c>
+      <c r="B380" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="C380" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="D380" s="33">
+        <v>200000.0</v>
+      </c>
+      <c r="E380" s="41"/>
     </row>
     <row r="381">
-      <c r="D381" s="33"/>
+      <c r="A381" s="5">
+        <v>380.0</v>
+      </c>
+      <c r="B381" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C381" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="D381" s="33">
+        <v>21333.0</v>
+      </c>
+      <c r="E381" s="41"/>
     </row>
     <row r="382">
-      <c r="D382" s="33"/>
+      <c r="A382" s="5">
+        <v>381.0</v>
+      </c>
+      <c r="B382" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="C382" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D382" s="33">
+        <v>40000.0</v>
+      </c>
+      <c r="E382" s="41"/>
     </row>
     <row r="383">
-      <c r="D383" s="33"/>
+      <c r="A383" s="5">
+        <v>382.0</v>
+      </c>
+      <c r="B383" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="C383" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D383" s="42">
+        <v>1000000.0</v>
+      </c>
+      <c r="E383" s="41"/>
     </row>
     <row r="384">
-      <c r="D384" s="33"/>
+      <c r="A384" s="5">
+        <v>383.0</v>
+      </c>
+      <c r="B384" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="C384" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="D384" s="42">
+        <v>80000.0</v>
+      </c>
+      <c r="E384" s="41"/>
     </row>
     <row r="385">
-      <c r="D385" s="33"/>
+      <c r="A385" s="5">
+        <v>384.0</v>
+      </c>
+      <c r="B385" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="C385" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D385" s="33">
+        <v>133333.0</v>
+      </c>
+      <c r="E385" s="41"/>
     </row>
     <row r="386">
-      <c r="D386" s="33"/>
+      <c r="A386" s="5">
+        <v>385.0</v>
+      </c>
+      <c r="B386" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="C386" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="D386" s="33">
+        <v>33333.0</v>
+      </c>
+      <c r="E386" s="41"/>
     </row>
     <row r="387">
-      <c r="D387" s="33"/>
+      <c r="A387" s="5">
+        <v>386.0</v>
+      </c>
+      <c r="B387" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="C387" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D387" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E387" s="41"/>
     </row>
     <row r="388">
-      <c r="D388" s="33"/>
+      <c r="A388" s="5">
+        <v>387.0</v>
+      </c>
+      <c r="B388" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="C388" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D388" s="33">
+        <v>281293.0</v>
+      </c>
+      <c r="E388" s="41"/>
     </row>
     <row r="389">
-      <c r="D389" s="33"/>
+      <c r="A389" s="5">
+        <v>388.0</v>
+      </c>
+      <c r="B389" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="C389" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D389" s="33">
+        <v>66666.0</v>
+      </c>
+      <c r="E389" s="41"/>
     </row>
     <row r="390">
-      <c r="D390" s="33"/>
+      <c r="A390" s="5">
+        <v>389.0</v>
+      </c>
+      <c r="B390" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="C390" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="D390" s="33">
+        <v>400000.0</v>
+      </c>
+      <c r="E390" s="41"/>
     </row>
     <row r="391">
-      <c r="D391" s="33"/>
+      <c r="A391" s="5">
+        <v>390.0</v>
+      </c>
+      <c r="B391" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="C391" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="D391" s="33">
+        <v>900000.0</v>
+      </c>
+      <c r="E391" s="41"/>
     </row>
     <row r="392">
-      <c r="D392" s="33"/>
+      <c r="A392" s="5">
+        <v>391.0</v>
+      </c>
+      <c r="B392" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="D392" s="42">
+        <v>960000.0</v>
+      </c>
+      <c r="E392" s="41"/>
     </row>
     <row r="393">
-      <c r="D393" s="33"/>
+      <c r="A393" s="5">
+        <v>392.0</v>
+      </c>
+      <c r="B393" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="C393" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="D393" s="42">
+        <v>13333.0</v>
+      </c>
+      <c r="E393" s="41"/>
     </row>
     <row r="394">
-      <c r="D394" s="33"/>
+      <c r="A394" s="5">
+        <v>393.0</v>
+      </c>
+      <c r="B394" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="C394" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="D394" s="33">
+        <v>20400.0</v>
+      </c>
+      <c r="E394" s="41"/>
     </row>
     <row r="395">
-      <c r="D395" s="33"/>
+      <c r="A395" s="5">
+        <v>394.0</v>
+      </c>
+      <c r="B395" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C395" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="D395" s="33">
+        <v>73333.0</v>
+      </c>
+      <c r="E395" s="41"/>
     </row>
     <row r="396">
-      <c r="D396" s="33"/>
+      <c r="A396" s="5">
+        <v>395.0</v>
+      </c>
+      <c r="B396" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="C396" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="D396" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E396" s="41"/>
     </row>
     <row r="397">
-      <c r="D397" s="33"/>
+      <c r="A397" s="5">
+        <v>396.0</v>
+      </c>
+      <c r="B397" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="C397" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D397" s="33">
+        <v>70000.0</v>
+      </c>
+      <c r="E397" s="41"/>
     </row>
     <row r="398">
-      <c r="D398" s="33"/>
+      <c r="A398" s="5">
+        <v>397.0</v>
+      </c>
+      <c r="B398" s="44" t="s">
+        <v>682</v>
+      </c>
+      <c r="C398" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="D398" s="42">
+        <v>66666.0</v>
+      </c>
+      <c r="E398" s="41"/>
     </row>
     <row r="399">
-      <c r="D399" s="33"/>
+      <c r="A399" s="5">
+        <v>398.0</v>
+      </c>
+      <c r="B399" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="C399" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="D399" s="33">
+        <v>66666.0</v>
+      </c>
+      <c r="E399" s="41"/>
     </row>
     <row r="400">
-      <c r="D400" s="33"/>
+      <c r="A400" s="5">
+        <v>399.0</v>
+      </c>
+      <c r="B400" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="D400" s="33">
+        <v>66666.0</v>
+      </c>
+      <c r="E400" s="41"/>
     </row>
     <row r="401">
-      <c r="D401" s="33"/>
+      <c r="A401" s="5">
+        <v>400.0</v>
+      </c>
+      <c r="B401" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="C401" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="D401" s="33">
+        <v>170000.0</v>
+      </c>
+      <c r="E401" s="41"/>
     </row>
     <row r="402">
-      <c r="D402" s="33"/>
+      <c r="A402" s="5">
+        <v>401.0</v>
+      </c>
+      <c r="B402" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="C402" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D402" s="33">
+        <v>12200.0</v>
+      </c>
+      <c r="E402" s="41"/>
     </row>
     <row r="403">
-      <c r="D403" s="33"/>
+      <c r="A403" s="5">
+        <v>402.0</v>
+      </c>
+      <c r="B403" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="C403" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="D403" s="33">
+        <v>250000.0</v>
+      </c>
+      <c r="E403" s="41"/>
     </row>
     <row r="404">
-      <c r="D404" s="33"/>
+      <c r="A404" s="5">
+        <v>403.0</v>
+      </c>
+      <c r="B404" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C404" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D404" s="33">
+        <v>200000.0</v>
+      </c>
+      <c r="E404" s="41"/>
     </row>
     <row r="405">
-      <c r="D405" s="33"/>
+      <c r="A405" s="5">
+        <v>404.0</v>
+      </c>
+      <c r="B405" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="C405" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="D405" s="33">
+        <v>49000.0</v>
+      </c>
+      <c r="E405" s="41"/>
     </row>
     <row r="406">
-      <c r="D406" s="33"/>
+      <c r="A406" s="5">
+        <v>405.0</v>
+      </c>
+      <c r="B406" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C406" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D406" s="33">
+        <v>2000.0</v>
+      </c>
+      <c r="E406" s="41"/>
     </row>
     <row r="407">
-      <c r="D407" s="33"/>
+      <c r="A407" s="5">
+        <v>406.0</v>
+      </c>
+      <c r="B407" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C407" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="D407" s="33">
+        <v>250000.0</v>
+      </c>
+      <c r="E407" s="41"/>
     </row>
     <row r="408">
-      <c r="D408" s="33"/>
+      <c r="A408" s="5">
+        <v>407.0</v>
+      </c>
+      <c r="B408" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="C408" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D408" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E408" s="41"/>
     </row>
     <row r="409">
-      <c r="D409" s="33"/>
+      <c r="A409" s="5">
+        <v>408.0</v>
+      </c>
+      <c r="B409" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="C409" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D409" s="33">
+        <v>200000.0</v>
+      </c>
+      <c r="E409" s="41"/>
     </row>
     <row r="410">
-      <c r="D410" s="33"/>
+      <c r="A410" s="5">
+        <v>409.0</v>
+      </c>
+      <c r="B410" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="C410" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="D410" s="33">
+        <v>200000.0</v>
+      </c>
+      <c r="E410" s="41"/>
     </row>
     <row r="411">
-      <c r="D411" s="33"/>
+      <c r="A411" s="5">
+        <v>410.0</v>
+      </c>
+      <c r="B411" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="C411" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D411" s="33">
+        <v>30000.0</v>
+      </c>
+      <c r="E411" s="41"/>
     </row>
     <row r="412">
-      <c r="D412" s="33"/>
+      <c r="A412" s="5">
+        <v>411.0</v>
+      </c>
+      <c r="B412" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C412" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D412" s="33">
+        <v>150000.0</v>
+      </c>
+      <c r="E412" s="41"/>
     </row>
     <row r="413">
-      <c r="D413" s="33"/>
+      <c r="A413" s="5">
+        <v>412.0</v>
+      </c>
+      <c r="B413" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="C413" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="D413" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E413" s="41"/>
     </row>
     <row r="414">
-      <c r="D414" s="33"/>
+      <c r="A414" s="5">
+        <v>413.0</v>
+      </c>
+      <c r="B414" s="40" t="s">
+        <v>699</v>
+      </c>
+      <c r="C414" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="D414" s="33">
+        <v>8950.0</v>
+      </c>
+      <c r="E414" s="41"/>
     </row>
     <row r="415">
-      <c r="D415" s="33"/>
+      <c r="A415" s="5">
+        <v>414.0</v>
+      </c>
+      <c r="B415" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="C415" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D415" s="42">
+        <v>42500.0</v>
+      </c>
+      <c r="E415" s="41"/>
     </row>
     <row r="416">
-      <c r="D416" s="33"/>
+      <c r="A416" s="5">
+        <v>415.0</v>
+      </c>
+      <c r="B416" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C416" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D416" s="33">
+        <v>25000.0</v>
+      </c>
+      <c r="E416" s="41"/>
     </row>
     <row r="417">
-      <c r="D417" s="33"/>
+      <c r="A417" s="5">
+        <v>416.0</v>
+      </c>
+      <c r="B417" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="C417" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="D417" s="33">
+        <v>500000.0</v>
+      </c>
+      <c r="E417" s="41"/>
     </row>
     <row r="418">
-      <c r="D418" s="33"/>
+      <c r="A418" s="5">
+        <v>417.0</v>
+      </c>
+      <c r="B418" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="C418" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="D418" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E418" s="41"/>
     </row>
     <row r="419">
-      <c r="D419" s="33"/>
+      <c r="A419" s="5">
+        <v>418.0</v>
+      </c>
+      <c r="B419" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="C419" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="D419" s="33">
+        <v>5000.0</v>
+      </c>
+      <c r="E419" s="41"/>
     </row>
     <row r="420">
-      <c r="D420" s="33"/>
+      <c r="A420" s="5">
+        <v>419.0</v>
+      </c>
+      <c r="B420" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="C420" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="D420" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E420" s="41"/>
     </row>
     <row r="421">
-      <c r="D421" s="33"/>
+      <c r="A421" s="5">
+        <v>420.0</v>
+      </c>
+      <c r="B421" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="C421" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="D421" s="33">
+        <v>1000000.0</v>
+      </c>
+      <c r="E421" s="41"/>
     </row>
     <row r="422">
-      <c r="D422" s="33"/>
+      <c r="A422" s="5">
+        <v>421.0</v>
+      </c>
+      <c r="B422" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="C422" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="D422" s="33">
+        <v>60000.0</v>
+      </c>
+      <c r="E422" s="41"/>
     </row>
     <row r="423">
-      <c r="D423" s="33"/>
+      <c r="A423" s="5">
+        <v>422.0</v>
+      </c>
+      <c r="B423" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C423" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="D423" s="42">
+        <v>5000.0</v>
+      </c>
+      <c r="E423" s="41"/>
     </row>
     <row r="424">
-      <c r="D424" s="33"/>
+      <c r="A424" s="5">
+        <v>423.0</v>
+      </c>
+      <c r="B424" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="C424" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="D424" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E424" s="41"/>
     </row>
     <row r="425">
-      <c r="D425" s="33"/>
+      <c r="A425" s="5">
+        <v>424.0</v>
+      </c>
+      <c r="B425" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="C425" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="D425" s="33">
+        <v>110000.0</v>
+      </c>
+      <c r="E425" s="41"/>
     </row>
     <row r="426">
-      <c r="D426" s="33"/>
+      <c r="A426" s="5">
+        <v>425.0</v>
+      </c>
+      <c r="B426" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="C426" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="D426" s="33">
+        <v>12540.0</v>
+      </c>
+      <c r="E426" s="41"/>
     </row>
     <row r="427">
-      <c r="D427" s="33"/>
+      <c r="A427" s="5">
+        <v>426.0</v>
+      </c>
+      <c r="B427" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="C427" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D427" s="33">
+        <v>22500.0</v>
+      </c>
+      <c r="E427" s="41"/>
     </row>
     <row r="428">
-      <c r="D428" s="33"/>
+      <c r="A428" s="5">
+        <v>427.0</v>
+      </c>
+      <c r="B428" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="C428" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="D428" s="33">
+        <v>25000.0</v>
+      </c>
+      <c r="E428" s="41"/>
     </row>
     <row r="429">
-      <c r="D429" s="33"/>
+      <c r="A429" s="5">
+        <v>428.0</v>
+      </c>
+      <c r="B429" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="C429" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D429" s="33">
+        <v>5000.0</v>
+      </c>
+      <c r="E429" s="41"/>
     </row>
     <row r="430">
-      <c r="D430" s="33"/>
+      <c r="A430" s="5">
+        <v>429.0</v>
+      </c>
+      <c r="B430" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="C430" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="D430" s="33">
+        <v>565750.0</v>
+      </c>
+      <c r="E430" s="41"/>
     </row>
     <row r="431">
-      <c r="D431" s="33"/>
+      <c r="A431" s="5">
+        <v>430.0</v>
+      </c>
+      <c r="B431" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="C431" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="D431" s="33">
+        <v>118600.0</v>
+      </c>
+      <c r="E431" s="41"/>
     </row>
     <row r="432">
-      <c r="D432" s="33"/>
+      <c r="A432" s="5">
+        <v>431.0</v>
+      </c>
+      <c r="B432" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="C432" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="D432" s="33">
+        <v>100000.0</v>
+      </c>
+      <c r="E432" s="41"/>
     </row>
     <row r="433">
-      <c r="D433" s="33"/>
+      <c r="A433" s="5">
+        <v>432.0</v>
+      </c>
+      <c r="B433" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="C433" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D433" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E433" s="41"/>
     </row>
     <row r="434">
-      <c r="D434" s="33"/>
+      <c r="A434" s="5">
+        <v>433.0</v>
+      </c>
+      <c r="B434" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C434" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D434" s="33">
+        <v>15000.0</v>
+      </c>
+      <c r="E434" s="41"/>
     </row>
     <row r="435">
-      <c r="D435" s="33"/>
+      <c r="A435" s="5">
+        <v>434.0</v>
+      </c>
+      <c r="B435" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="C435" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="D435" s="33">
+        <v>50000.0</v>
+      </c>
+      <c r="E435" s="41"/>
     </row>
     <row r="436">
-      <c r="D436" s="33"/>
+      <c r="A436" s="5">
+        <v>435.0</v>
+      </c>
+      <c r="B436" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C436" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D436" s="33">
+        <v>236750.0</v>
+      </c>
+      <c r="E436" s="41"/>
     </row>
     <row r="437">
-      <c r="D437" s="33"/>
+      <c r="A437" s="5">
+        <v>436.0</v>
+      </c>
+      <c r="B437" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C437" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D437" s="33">
+        <v>19050.0</v>
+      </c>
+      <c r="E437" s="41"/>
     </row>
     <row r="438">
-      <c r="D438" s="33"/>
+      <c r="A438" s="5">
+        <v>437.0</v>
+      </c>
+      <c r="B438" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C438" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D438" s="42">
+        <v>65000.0</v>
+      </c>
+      <c r="E438" s="41"/>
     </row>
     <row r="439">
-      <c r="D439" s="33"/>
+      <c r="A439" s="5">
+        <v>438.0</v>
+      </c>
+      <c r="B439" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C439" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="D439" s="33">
+        <v>34350.0</v>
+      </c>
+      <c r="E439" s="41"/>
     </row>
     <row r="440">
-      <c r="D440" s="33"/>
+      <c r="A440" s="5">
+        <v>439.0</v>
+      </c>
+      <c r="B440" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C440" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="D440" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E440" s="41"/>
     </row>
     <row r="441">
-      <c r="D441" s="33"/>
+      <c r="A441" s="5">
+        <v>440.0</v>
+      </c>
+      <c r="B441" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="D441" s="33">
+        <v>25000.0</v>
+      </c>
+      <c r="E441" s="41"/>
     </row>
     <row r="442">
-      <c r="D442" s="33"/>
+      <c r="A442" s="5">
+        <v>441.0</v>
+      </c>
+      <c r="B442" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="D442" s="33">
+        <v>20000.0</v>
+      </c>
+      <c r="E442" s="41"/>
     </row>
     <row r="443">
-      <c r="D443" s="33"/>
+      <c r="A443" s="5">
+        <v>442.0</v>
+      </c>
+      <c r="B443" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="C443" s="40" t="s">
+        <v>736</v>
+      </c>
+      <c r="D443" s="33">
+        <v>960000.0</v>
+      </c>
+      <c r="E443" s="41"/>
     </row>
     <row r="444">
-      <c r="D444" s="33"/>
+      <c r="A444" s="5">
+        <v>443.0</v>
+      </c>
+      <c r="B444" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="C444" s="40" t="s">
+        <v>501</v>
+      </c>
+      <c r="D444" s="33">
+        <v>880000.0</v>
+      </c>
+      <c r="E444" s="41"/>
     </row>
     <row r="445">
-      <c r="D445" s="33"/>
+      <c r="A445" s="5">
+        <v>444.0</v>
+      </c>
+      <c r="B445" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="C445" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D445" s="33">
+        <v>10400.0</v>
+      </c>
+      <c r="E445" s="41"/>
     </row>
     <row r="446">
-      <c r="D446" s="33"/>
+      <c r="A446" s="5">
+        <v>445.0</v>
+      </c>
+      <c r="B446" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="C446" s="40" t="s">
+        <v>740</v>
+      </c>
+      <c r="D446" s="33">
+        <v>950000.0</v>
+      </c>
+      <c r="E446" s="41"/>
     </row>
     <row r="447">
-      <c r="D447" s="33"/>
+      <c r="A447" s="5">
+        <v>446.0</v>
+      </c>
+      <c r="B447" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C447" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="D447" s="33">
+        <v>5000.0</v>
+      </c>
+      <c r="E447" s="41"/>
     </row>
     <row r="448">
-      <c r="D448" s="33"/>
+      <c r="A448" s="5">
+        <v>447.0</v>
+      </c>
+      <c r="B448" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="C448" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="D448" s="33">
+        <v>24400.0</v>
+      </c>
+      <c r="E448" s="41"/>
     </row>
     <row r="449">
-      <c r="D449" s="33"/>
+      <c r="A449" s="5">
+        <v>448.0</v>
+      </c>
+      <c r="B449" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D449" s="33">
+        <v>890000.0</v>
+      </c>
+      <c r="E449" s="41"/>
     </row>
     <row r="450">
-      <c r="D450" s="33"/>
+      <c r="A450" s="5">
+        <v>449.0</v>
+      </c>
+      <c r="B450" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="D450" s="33">
+        <v>999000.0</v>
+      </c>
+      <c r="E450" s="41"/>
     </row>
     <row r="451">
-      <c r="D451" s="33"/>
+      <c r="D451" s="47"/>
     </row>
     <row r="452">
-      <c r="D452" s="33"/>
+      <c r="D452" s="47"/>
     </row>
     <row r="453">
-      <c r="D453" s="33"/>
+      <c r="D453" s="47"/>
     </row>
     <row r="454">
-      <c r="D454" s="33"/>
+      <c r="D454" s="47"/>
     </row>
     <row r="455">
-      <c r="D455" s="33"/>
+      <c r="D455" s="47"/>
     </row>
     <row r="456">
-      <c r="D456" s="33"/>
+      <c r="D456" s="47"/>
     </row>
     <row r="457">
-      <c r="D457" s="33"/>
+      <c r="D457" s="47"/>
     </row>
     <row r="458">
-      <c r="D458" s="33"/>
+      <c r="D458" s="47"/>
     </row>
     <row r="459">
-      <c r="D459" s="33"/>
+      <c r="D459" s="47"/>
     </row>
     <row r="460">
-      <c r="D460" s="33"/>
+      <c r="D460" s="47"/>
     </row>
     <row r="461">
-      <c r="D461" s="33"/>
+      <c r="D461" s="47"/>
     </row>
     <row r="462">
-      <c r="D462" s="33"/>
+      <c r="D462" s="47"/>
     </row>
     <row r="463">
-      <c r="D463" s="33"/>
+      <c r="D463" s="47"/>
     </row>
     <row r="464">
-      <c r="D464" s="33"/>
+      <c r="D464" s="47"/>
     </row>
     <row r="465">
-      <c r="D465" s="33"/>
+      <c r="D465" s="47"/>
     </row>
     <row r="466">
-      <c r="D466" s="33"/>
+      <c r="D466" s="47"/>
     </row>
     <row r="467">
-      <c r="D467" s="33"/>
+      <c r="D467" s="47"/>
     </row>
     <row r="468">
-      <c r="D468" s="33"/>
+      <c r="D468" s="47"/>
     </row>
     <row r="469">
-      <c r="D469" s="33"/>
+      <c r="D469" s="47"/>
     </row>
     <row r="470">
-      <c r="D470" s="33"/>
+      <c r="D470" s="47"/>
     </row>
     <row r="471">
-      <c r="D471" s="33"/>
+      <c r="D471" s="47"/>
     </row>
     <row r="472">
-      <c r="D472" s="33"/>
+      <c r="D472" s="47"/>
     </row>
     <row r="473">
-      <c r="D473" s="33"/>
+      <c r="D473" s="47"/>
     </row>
     <row r="474">
-      <c r="D474" s="33"/>
+      <c r="D474" s="47"/>
     </row>
     <row r="475">
-      <c r="D475" s="33"/>
+      <c r="D475" s="47"/>
     </row>
     <row r="476">
-      <c r="D476" s="33"/>
+      <c r="D476" s="47"/>
     </row>
     <row r="477">
-      <c r="D477" s="33"/>
+      <c r="D477" s="47"/>
     </row>
     <row r="478">
-      <c r="D478" s="33"/>
+      <c r="D478" s="47"/>
     </row>
     <row r="479">
-      <c r="D479" s="33"/>
+      <c r="D479" s="47"/>
     </row>
     <row r="480">
-      <c r="D480" s="33"/>
+      <c r="D480" s="47"/>
     </row>
     <row r="481">
-      <c r="D481" s="33"/>
+      <c r="D481" s="47"/>
     </row>
     <row r="482">
-      <c r="D482" s="33"/>
+      <c r="D482" s="47"/>
     </row>
     <row r="483">
-      <c r="D483" s="33"/>
+      <c r="D483" s="47"/>
     </row>
     <row r="484">
-      <c r="D484" s="33"/>
+      <c r="D484" s="47"/>
     </row>
     <row r="485">
-      <c r="D485" s="33"/>
+      <c r="D485" s="47"/>
     </row>
     <row r="486">
-      <c r="D486" s="33"/>
+      <c r="D486" s="47"/>
     </row>
     <row r="487">
-      <c r="D487" s="33"/>
+      <c r="D487" s="47"/>
     </row>
     <row r="488">
-      <c r="D488" s="33"/>
+      <c r="D488" s="47"/>
     </row>
     <row r="489">
-      <c r="D489" s="33"/>
+      <c r="D489" s="47"/>
     </row>
     <row r="490">
-      <c r="D490" s="33"/>
+      <c r="D490" s="47"/>
     </row>
     <row r="491">
-      <c r="D491" s="33"/>
+      <c r="D491" s="47"/>
     </row>
     <row r="492">
-      <c r="D492" s="33"/>
+      <c r="D492" s="47"/>
     </row>
     <row r="493">
-      <c r="D493" s="33"/>
+      <c r="D493" s="47"/>
     </row>
     <row r="494">
-      <c r="D494" s="33"/>
+      <c r="D494" s="47"/>
     </row>
     <row r="495">
-      <c r="D495" s="33"/>
+      <c r="D495" s="47"/>
     </row>
     <row r="496">
-      <c r="D496" s="33"/>
+      <c r="D496" s="47"/>
     </row>
     <row r="497">
-      <c r="D497" s="33"/>
+      <c r="D497" s="47"/>
     </row>
     <row r="498">
-      <c r="D498" s="33"/>
+      <c r="D498" s="47"/>
     </row>
     <row r="499">
-      <c r="D499" s="33"/>
+      <c r="D499" s="47"/>
     </row>
     <row r="500">
-      <c r="D500" s="33"/>
+      <c r="D500" s="47"/>
     </row>
     <row r="501">
-      <c r="D501" s="33"/>
+      <c r="D501" s="47"/>
     </row>
     <row r="502">
-      <c r="D502" s="33"/>
+      <c r="D502" s="47"/>
     </row>
     <row r="503">
-      <c r="D503" s="33"/>
+      <c r="D503" s="47"/>
     </row>
     <row r="504">
-      <c r="D504" s="33"/>
+      <c r="D504" s="47"/>
     </row>
     <row r="505">
-      <c r="D505" s="33"/>
+      <c r="D505" s="47"/>
     </row>
     <row r="506">
-      <c r="D506" s="33"/>
+      <c r="D506" s="47"/>
     </row>
     <row r="507">
-      <c r="D507" s="33"/>
+      <c r="D507" s="47"/>
     </row>
     <row r="508">
-      <c r="D508" s="33"/>
+      <c r="D508" s="47"/>
     </row>
     <row r="509">
-      <c r="D509" s="33"/>
+      <c r="D509" s="47"/>
     </row>
     <row r="510">
-      <c r="D510" s="33"/>
+      <c r="D510" s="47"/>
     </row>
     <row r="511">
-      <c r="D511" s="33"/>
+      <c r="D511" s="47"/>
     </row>
     <row r="512">
-      <c r="D512" s="33"/>
+      <c r="D512" s="47"/>
     </row>
     <row r="513">
-      <c r="D513" s="33"/>
+      <c r="D513" s="47"/>
     </row>
     <row r="514">
-      <c r="D514" s="33"/>
+      <c r="D514" s="47"/>
     </row>
     <row r="515">
-      <c r="D515" s="33"/>
+      <c r="D515" s="47"/>
     </row>
     <row r="516">
-      <c r="D516" s="33"/>
+      <c r="D516" s="47"/>
     </row>
     <row r="517">
-      <c r="D517" s="33"/>
+      <c r="D517" s="47"/>
     </row>
     <row r="518">
-      <c r="D518" s="33"/>
+      <c r="D518" s="47"/>
     </row>
     <row r="519">
-      <c r="D519" s="33"/>
+      <c r="D519" s="47"/>
     </row>
     <row r="520">
-      <c r="D520" s="33"/>
+      <c r="D520" s="47"/>
     </row>
     <row r="521">
-      <c r="D521" s="33"/>
+      <c r="D521" s="47"/>
     </row>
     <row r="522">
-      <c r="D522" s="33"/>
+      <c r="D522" s="47"/>
     </row>
     <row r="523">
-      <c r="D523" s="33"/>
+      <c r="D523" s="47"/>
     </row>
     <row r="524">
-      <c r="D524" s="33"/>
+      <c r="D524" s="47"/>
     </row>
     <row r="525">
-      <c r="D525" s="33"/>
+      <c r="D525" s="47"/>
     </row>
     <row r="526">
-      <c r="D526" s="33"/>
+      <c r="D526" s="47"/>
     </row>
     <row r="527">
-      <c r="D527" s="33"/>
+      <c r="D527" s="47"/>
     </row>
     <row r="528">
-      <c r="D528" s="33"/>
+      <c r="D528" s="47"/>
     </row>
     <row r="529">
-      <c r="D529" s="33"/>
+      <c r="D529" s="47"/>
     </row>
     <row r="530">
-      <c r="D530" s="33"/>
+      <c r="D530" s="47"/>
     </row>
     <row r="531">
-      <c r="D531" s="33"/>
+      <c r="D531" s="47"/>
     </row>
     <row r="532">
-      <c r="D532" s="33"/>
+      <c r="D532" s="47"/>
     </row>
     <row r="533">
-      <c r="D533" s="33"/>
+      <c r="D533" s="47"/>
     </row>
     <row r="534">
-      <c r="D534" s="33"/>
+      <c r="D534" s="47"/>
     </row>
     <row r="535">
-      <c r="D535" s="33"/>
+      <c r="D535" s="47"/>
     </row>
     <row r="536">
-      <c r="D536" s="33"/>
+      <c r="D536" s="47"/>
     </row>
     <row r="537">
-      <c r="D537" s="33"/>
+      <c r="D537" s="47"/>
     </row>
     <row r="538">
-      <c r="D538" s="33"/>
+      <c r="D538" s="47"/>
     </row>
     <row r="539">
-      <c r="D539" s="33"/>
+      <c r="D539" s="47"/>
     </row>
     <row r="540">
-      <c r="D540" s="33"/>
+      <c r="D540" s="47"/>
     </row>
     <row r="541">
-      <c r="D541" s="33"/>
+      <c r="D541" s="47"/>
     </row>
     <row r="542">
-      <c r="D542" s="33"/>
+      <c r="D542" s="47"/>
     </row>
     <row r="543">
-      <c r="D543" s="33"/>
+      <c r="D543" s="47"/>
     </row>
     <row r="544">
-      <c r="D544" s="33"/>
+      <c r="D544" s="47"/>
     </row>
     <row r="545">
-      <c r="D545" s="33"/>
+      <c r="D545" s="47"/>
     </row>
     <row r="546">
-      <c r="D546" s="33"/>
+      <c r="D546" s="47"/>
     </row>
     <row r="547">
-      <c r="D547" s="33"/>
+      <c r="D547" s="47"/>
     </row>
     <row r="548">
-      <c r="D548" s="33"/>
+      <c r="D548" s="47"/>
     </row>
     <row r="549">
-      <c r="D549" s="33"/>
+      <c r="D549" s="47"/>
     </row>
     <row r="550">
-      <c r="D550" s="33"/>
+      <c r="D550" s="47"/>
     </row>
     <row r="551">
-      <c r="D551" s="33"/>
+      <c r="D551" s="47"/>
     </row>
     <row r="552">
-      <c r="D552" s="33"/>
+      <c r="D552" s="47"/>
     </row>
     <row r="553">
-      <c r="D553" s="33"/>
+      <c r="D553" s="47"/>
     </row>
     <row r="554">
-      <c r="D554" s="33"/>
+      <c r="D554" s="47"/>
     </row>
     <row r="555">
-      <c r="D555" s="33"/>
+      <c r="D555" s="47"/>
     </row>
     <row r="556">
-      <c r="D556" s="33"/>
+      <c r="D556" s="47"/>
     </row>
     <row r="557">
-      <c r="D557" s="33"/>
+      <c r="D557" s="47"/>
     </row>
     <row r="558">
-      <c r="D558" s="33"/>
+      <c r="D558" s="47"/>
     </row>
     <row r="559">
-      <c r="D559" s="33"/>
+      <c r="D559" s="47"/>
     </row>
     <row r="560">
-      <c r="D560" s="33"/>
+      <c r="D560" s="47"/>
     </row>
     <row r="561">
-      <c r="D561" s="33"/>
+      <c r="D561" s="47"/>
     </row>
     <row r="562">
-      <c r="D562" s="33"/>
+      <c r="D562" s="47"/>
     </row>
     <row r="563">
-      <c r="D563" s="33"/>
+      <c r="D563" s="47"/>
     </row>
     <row r="564">
-      <c r="D564" s="33"/>
+      <c r="D564" s="47"/>
     </row>
     <row r="565">
-      <c r="D565" s="33"/>
+      <c r="D565" s="47"/>
     </row>
     <row r="566">
-      <c r="D566" s="33"/>
+      <c r="D566" s="47"/>
     </row>
     <row r="567">
-      <c r="D567" s="33"/>
+      <c r="D567" s="47"/>
     </row>
     <row r="568">
-      <c r="D568" s="33"/>
+      <c r="D568" s="47"/>
     </row>
     <row r="569">
-      <c r="D569" s="33"/>
+      <c r="D569" s="47"/>
     </row>
     <row r="570">
-      <c r="D570" s="33"/>
+      <c r="D570" s="47"/>
     </row>
     <row r="571">
-      <c r="D571" s="33"/>
+      <c r="D571" s="47"/>
     </row>
     <row r="572">
-      <c r="D572" s="33"/>
+      <c r="D572" s="47"/>
     </row>
     <row r="573">
-      <c r="D573" s="33"/>
+      <c r="D573" s="47"/>
     </row>
     <row r="574">
-      <c r="D574" s="33"/>
+      <c r="D574" s="47"/>
     </row>
     <row r="575">
-      <c r="D575" s="33"/>
+      <c r="D575" s="47"/>
     </row>
     <row r="576">
-      <c r="D576" s="33"/>
+      <c r="D576" s="47"/>
     </row>
     <row r="577">
-      <c r="D577" s="33"/>
+      <c r="D577" s="47"/>
     </row>
     <row r="578">
-      <c r="D578" s="33"/>
+      <c r="D578" s="47"/>
     </row>
     <row r="579">
-      <c r="D579" s="33"/>
+      <c r="D579" s="47"/>
     </row>
     <row r="580">
-      <c r="D580" s="33"/>
+      <c r="D580" s="47"/>
     </row>
     <row r="581">
-      <c r="D581" s="33"/>
+      <c r="D581" s="47"/>
     </row>
     <row r="582">
-      <c r="D582" s="33"/>
+      <c r="D582" s="47"/>
     </row>
     <row r="583">
-      <c r="D583" s="33"/>
+      <c r="D583" s="47"/>
     </row>
     <row r="584">
-      <c r="D584" s="33"/>
+      <c r="D584" s="47"/>
     </row>
     <row r="585">
-      <c r="D585" s="33"/>
+      <c r="D585" s="47"/>
     </row>
     <row r="586">
-      <c r="D586" s="33"/>
+      <c r="D586" s="47"/>
     </row>
     <row r="587">
-      <c r="D587" s="33"/>
+      <c r="D587" s="47"/>
     </row>
     <row r="588">
-      <c r="D588" s="33"/>
+      <c r="D588" s="47"/>
     </row>
     <row r="589">
-      <c r="D589" s="33"/>
+      <c r="D589" s="47"/>
     </row>
     <row r="590">
-      <c r="D590" s="33"/>
+      <c r="D590" s="47"/>
     </row>
     <row r="591">
-      <c r="D591" s="33"/>
+      <c r="D591" s="47"/>
     </row>
     <row r="592">
-      <c r="D592" s="33"/>
+      <c r="D592" s="47"/>
     </row>
     <row r="593">
-      <c r="D593" s="33"/>
+      <c r="D593" s="47"/>
     </row>
     <row r="594">
-      <c r="D594" s="33"/>
+      <c r="D594" s="47"/>
     </row>
     <row r="595">
-      <c r="D595" s="33"/>
+      <c r="D595" s="47"/>
     </row>
     <row r="596">
-      <c r="D596" s="33"/>
+      <c r="D596" s="47"/>
     </row>
     <row r="597">
-      <c r="D597" s="33"/>
+      <c r="D597" s="47"/>
     </row>
     <row r="598">
-      <c r="D598" s="33"/>
+      <c r="D598" s="47"/>
     </row>
     <row r="599">
-      <c r="D599" s="33"/>
+      <c r="D599" s="47"/>
     </row>
     <row r="600">
-      <c r="D600" s="33"/>
+      <c r="D600" s="47"/>
     </row>
     <row r="601">
-      <c r="D601" s="33"/>
+      <c r="D601" s="47"/>
     </row>
     <row r="602">
-      <c r="D602" s="33"/>
+      <c r="D602" s="47"/>
     </row>
     <row r="603">
-      <c r="D603" s="33"/>
+      <c r="D603" s="47"/>
     </row>
     <row r="604">
-      <c r="D604" s="33"/>
+      <c r="D604" s="47"/>
     </row>
     <row r="605">
-      <c r="D605" s="33"/>
+      <c r="D605" s="47"/>
     </row>
     <row r="606">
-      <c r="D606" s="33"/>
+      <c r="D606" s="47"/>
     </row>
     <row r="607">
-      <c r="D607" s="33"/>
+      <c r="D607" s="47"/>
     </row>
     <row r="608">
-      <c r="D608" s="33"/>
+      <c r="D608" s="47"/>
     </row>
     <row r="609">
-      <c r="D609" s="33"/>
+      <c r="D609" s="47"/>
     </row>
     <row r="610">
-      <c r="D610" s="33"/>
+      <c r="D610" s="47"/>
     </row>
     <row r="611">
-      <c r="D611" s="33"/>
+      <c r="D611" s="47"/>
     </row>
     <row r="612">
-      <c r="D612" s="33"/>
+      <c r="D612" s="47"/>
     </row>
     <row r="613">
-      <c r="D613" s="33"/>
+      <c r="D613" s="47"/>
     </row>
     <row r="614">
-      <c r="D614" s="33"/>
+      <c r="D614" s="47"/>
     </row>
     <row r="615">
-      <c r="D615" s="33"/>
+      <c r="D615" s="47"/>
     </row>
     <row r="616">
-      <c r="D616" s="33"/>
+      <c r="D616" s="47"/>
     </row>
     <row r="617">
-      <c r="D617" s="33"/>
+      <c r="D617" s="47"/>
     </row>
     <row r="618">
-      <c r="D618" s="33"/>
+      <c r="D618" s="47"/>
     </row>
     <row r="619">
-      <c r="D619" s="33"/>
+      <c r="D619" s="47"/>
     </row>
     <row r="620">
-      <c r="D620" s="33"/>
+      <c r="D620" s="47"/>
     </row>
     <row r="621">
-      <c r="D621" s="33"/>
+      <c r="D621" s="47"/>
     </row>
     <row r="622">
-      <c r="D622" s="33"/>
+      <c r="D622" s="47"/>
     </row>
     <row r="623">
-      <c r="D623" s="33"/>
+      <c r="D623" s="47"/>
     </row>
     <row r="624">
-      <c r="D624" s="33"/>
+      <c r="D624" s="47"/>
     </row>
     <row r="625">
-      <c r="D625" s="33"/>
+      <c r="D625" s="47"/>
     </row>
     <row r="626">
-      <c r="D626" s="33"/>
+      <c r="D626" s="47"/>
     </row>
     <row r="627">
-      <c r="D627" s="33"/>
+      <c r="D627" s="47"/>
     </row>
     <row r="628">
-      <c r="D628" s="33"/>
+      <c r="D628" s="47"/>
     </row>
     <row r="629">
-      <c r="D629" s="33"/>
+      <c r="D629" s="47"/>
     </row>
     <row r="630">
-      <c r="D630" s="33"/>
+      <c r="D630" s="47"/>
     </row>
     <row r="631">
-      <c r="D631" s="33"/>
+      <c r="D631" s="47"/>
     </row>
     <row r="632">
-      <c r="D632" s="33"/>
+      <c r="D632" s="47"/>
     </row>
     <row r="633">
-      <c r="D633" s="33"/>
+      <c r="D633" s="47"/>
     </row>
     <row r="634">
-      <c r="D634" s="33"/>
+      <c r="D634" s="47"/>
     </row>
     <row r="635">
-      <c r="D635" s="33"/>
+      <c r="D635" s="47"/>
     </row>
     <row r="636">
-      <c r="D636" s="33"/>
+      <c r="D636" s="47"/>
     </row>
     <row r="637">
-      <c r="D637" s="33"/>
+      <c r="D637" s="47"/>
     </row>
     <row r="638">
-      <c r="D638" s="33"/>
+      <c r="D638" s="47"/>
     </row>
     <row r="639">
-      <c r="D639" s="33"/>
+      <c r="D639" s="47"/>
     </row>
     <row r="640">
-      <c r="D640" s="33"/>
+      <c r="D640" s="47"/>
     </row>
     <row r="641">
-      <c r="D641" s="33"/>
+      <c r="D641" s="47"/>
     </row>
     <row r="642">
-      <c r="D642" s="33"/>
+      <c r="D642" s="47"/>
     </row>
     <row r="643">
-      <c r="D643" s="33"/>
+      <c r="D643" s="47"/>
     </row>
     <row r="644">
-      <c r="D644" s="33"/>
+      <c r="D644" s="47"/>
     </row>
     <row r="645">
-      <c r="D645" s="33"/>
+      <c r="D645" s="47"/>
     </row>
     <row r="646">
-      <c r="D646" s="33"/>
+      <c r="D646" s="47"/>
     </row>
     <row r="647">
-      <c r="D647" s="33"/>
+      <c r="D647" s="47"/>
     </row>
     <row r="648">
-      <c r="D648" s="33"/>
+      <c r="D648" s="47"/>
     </row>
     <row r="649">
-      <c r="D649" s="33"/>
+      <c r="D649" s="47"/>
     </row>
     <row r="650">
-      <c r="D650" s="33"/>
+      <c r="D650" s="47"/>
     </row>
     <row r="651">
-      <c r="D651" s="33"/>
+      <c r="D651" s="47"/>
     </row>
     <row r="652">
-      <c r="D652" s="33"/>
+      <c r="D652" s="47"/>
     </row>
     <row r="653">
-      <c r="D653" s="33"/>
+      <c r="D653" s="47"/>
     </row>
     <row r="654">
-      <c r="D654" s="33"/>
+      <c r="D654" s="47"/>
     </row>
     <row r="655">
-      <c r="D655" s="33"/>
+      <c r="D655" s="47"/>
     </row>
     <row r="656">
-      <c r="D656" s="33"/>
+      <c r="D656" s="47"/>
     </row>
     <row r="657">
-      <c r="D657" s="33"/>
+      <c r="D657" s="47"/>
     </row>
     <row r="658">
-      <c r="D658" s="33"/>
+      <c r="D658" s="47"/>
     </row>
     <row r="659">
-      <c r="D659" s="33"/>
+      <c r="D659" s="47"/>
     </row>
     <row r="660">
-      <c r="D660" s="33"/>
+      <c r="D660" s="47"/>
     </row>
     <row r="661">
-      <c r="D661" s="33"/>
+      <c r="D661" s="47"/>
     </row>
     <row r="662">
-      <c r="D662" s="33"/>
+      <c r="D662" s="47"/>
     </row>
     <row r="663">
-      <c r="D663" s="33"/>
+      <c r="D663" s="47"/>
     </row>
     <row r="664">
-      <c r="D664" s="33"/>
+      <c r="D664" s="47"/>
     </row>
     <row r="665">
-      <c r="D665" s="33"/>
+      <c r="D665" s="47"/>
     </row>
     <row r="666">
-      <c r="D666" s="33"/>
+      <c r="D666" s="47"/>
     </row>
     <row r="667">
-      <c r="D667" s="33"/>
+      <c r="D667" s="47"/>
     </row>
     <row r="668">
-      <c r="D668" s="33"/>
+      <c r="D668" s="47"/>
     </row>
     <row r="669">
-      <c r="D669" s="33"/>
+      <c r="D669" s="47"/>
     </row>
     <row r="670">
-      <c r="D670" s="33"/>
+      <c r="D670" s="47"/>
     </row>
     <row r="671">
-      <c r="D671" s="33"/>
+      <c r="D671" s="47"/>
     </row>
     <row r="672">
-      <c r="D672" s="33"/>
+      <c r="D672" s="47"/>
     </row>
     <row r="673">
-      <c r="D673" s="33"/>
+      <c r="D673" s="47"/>
     </row>
     <row r="674">
-      <c r="D674" s="33"/>
+      <c r="D674" s="47"/>
     </row>
     <row r="675">
-      <c r="D675" s="33"/>
+      <c r="D675" s="47"/>
     </row>
     <row r="676">
-      <c r="D676" s="33"/>
+      <c r="D676" s="47"/>
     </row>
     <row r="677">
-      <c r="D677" s="33"/>
+      <c r="D677" s="47"/>
     </row>
     <row r="678">
-      <c r="D678" s="33"/>
+      <c r="D678" s="47"/>
     </row>
     <row r="679">
-      <c r="D679" s="33"/>
+      <c r="D679" s="47"/>
     </row>
     <row r="680">
-      <c r="D680" s="33"/>
+      <c r="D680" s="47"/>
     </row>
     <row r="681">
-      <c r="D681" s="33"/>
+      <c r="D681" s="47"/>
     </row>
     <row r="682">
-      <c r="D682" s="33"/>
+      <c r="D682" s="47"/>
     </row>
     <row r="683">
-      <c r="D683" s="33"/>
+      <c r="D683" s="47"/>
     </row>
     <row r="684">
-      <c r="D684" s="33"/>
+      <c r="D684" s="47"/>
     </row>
     <row r="685">
-      <c r="D685" s="33"/>
+      <c r="D685" s="47"/>
     </row>
     <row r="686">
-      <c r="D686" s="33"/>
+      <c r="D686" s="47"/>
     </row>
     <row r="687">
-      <c r="D687" s="33"/>
+      <c r="D687" s="47"/>
     </row>
     <row r="688">
-      <c r="D688" s="33"/>
+      <c r="D688" s="47"/>
     </row>
     <row r="689">
-      <c r="D689" s="33"/>
+      <c r="D689" s="47"/>
     </row>
     <row r="690">
-      <c r="D690" s="33"/>
+      <c r="D690" s="47"/>
     </row>
     <row r="691">
-      <c r="D691" s="33"/>
+      <c r="D691" s="47"/>
     </row>
     <row r="692">
-      <c r="D692" s="33"/>
+      <c r="D692" s="47"/>
     </row>
     <row r="693">
-      <c r="D693" s="33"/>
+      <c r="D693" s="47"/>
     </row>
     <row r="694">
-      <c r="D694" s="33"/>
+      <c r="D694" s="47"/>
     </row>
     <row r="695">
-      <c r="D695" s="33"/>
+      <c r="D695" s="47"/>
     </row>
     <row r="696">
-      <c r="D696" s="33"/>
+      <c r="D696" s="47"/>
     </row>
     <row r="697">
-      <c r="D697" s="33"/>
+      <c r="D697" s="47"/>
     </row>
     <row r="698">
-      <c r="D698" s="33"/>
+      <c r="D698" s="47"/>
     </row>
     <row r="699">
-      <c r="D699" s="33"/>
+      <c r="D699" s="47"/>
     </row>
     <row r="700">
-      <c r="D700" s="33"/>
+      <c r="D700" s="47"/>
     </row>
     <row r="701">
-      <c r="D701" s="33"/>
+      <c r="D701" s="47"/>
     </row>
     <row r="702">
-      <c r="D702" s="33"/>
+      <c r="D702" s="47"/>
     </row>
     <row r="703">
-      <c r="D703" s="33"/>
+      <c r="D703" s="47"/>
     </row>
     <row r="704">
-      <c r="D704" s="33"/>
+      <c r="D704" s="47"/>
     </row>
     <row r="705">
-      <c r="D705" s="33"/>
+      <c r="D705" s="47"/>
     </row>
     <row r="706">
-      <c r="D706" s="33"/>
+      <c r="D706" s="47"/>
     </row>
     <row r="707">
-      <c r="D707" s="33"/>
+      <c r="D707" s="47"/>
     </row>
     <row r="708">
-      <c r="D708" s="33"/>
+      <c r="D708" s="47"/>
     </row>
     <row r="709">
-      <c r="D709" s="33"/>
+      <c r="D709" s="47"/>
     </row>
     <row r="710">
-      <c r="D710" s="33"/>
+      <c r="D710" s="47"/>
     </row>
     <row r="711">
-      <c r="D711" s="33"/>
+      <c r="D711" s="47"/>
     </row>
     <row r="712">
-      <c r="D712" s="33"/>
+      <c r="D712" s="47"/>
     </row>
     <row r="713">
-      <c r="D713" s="33"/>
+      <c r="D713" s="47"/>
     </row>
     <row r="714">
-      <c r="D714" s="33"/>
+      <c r="D714" s="47"/>
     </row>
     <row r="715">
-      <c r="D715" s="33"/>
+      <c r="D715" s="47"/>
     </row>
     <row r="716">
-      <c r="D716" s="33"/>
+      <c r="D716" s="47"/>
     </row>
     <row r="717">
-      <c r="D717" s="33"/>
+      <c r="D717" s="47"/>
     </row>
     <row r="718">
-      <c r="D718" s="33"/>
+      <c r="D718" s="47"/>
     </row>
     <row r="719">
-      <c r="D719" s="33"/>
+      <c r="D719" s="47"/>
     </row>
     <row r="720">
-      <c r="D720" s="33"/>
+      <c r="D720" s="47"/>
     </row>
     <row r="721">
-      <c r="D721" s="33"/>
+      <c r="D721" s="47"/>
     </row>
     <row r="722">
-      <c r="D722" s="33"/>
+      <c r="D722" s="47"/>
     </row>
     <row r="723">
-      <c r="D723" s="33"/>
+      <c r="D723" s="47"/>
     </row>
     <row r="724">
-      <c r="D724" s="33"/>
+      <c r="D724" s="47"/>
     </row>
     <row r="725">
-      <c r="D725" s="33"/>
+      <c r="D725" s="47"/>
     </row>
     <row r="726">
-      <c r="D726" s="33"/>
+      <c r="D726" s="47"/>
     </row>
     <row r="727">
-      <c r="D727" s="33"/>
+      <c r="D727" s="47"/>
     </row>
     <row r="728">
-      <c r="D728" s="33"/>
+      <c r="D728" s="47"/>
     </row>
     <row r="729">
-      <c r="D729" s="33"/>
+      <c r="D729" s="47"/>
     </row>
     <row r="730">
-      <c r="D730" s="33"/>
+      <c r="D730" s="47"/>
     </row>
     <row r="731">
-      <c r="D731" s="33"/>
+      <c r="D731" s="47"/>
     </row>
     <row r="732">
-      <c r="D732" s="33"/>
+      <c r="D732" s="47"/>
     </row>
     <row r="733">
-      <c r="D733" s="33"/>
+      <c r="D733" s="47"/>
     </row>
     <row r="734">
-      <c r="D734" s="33"/>
+      <c r="D734" s="47"/>
     </row>
     <row r="735">
-      <c r="D735" s="33"/>
+      <c r="D735" s="47"/>
     </row>
     <row r="736">
-      <c r="D736" s="33"/>
+      <c r="D736" s="47"/>
     </row>
     <row r="737">
-      <c r="D737" s="33"/>
+      <c r="D737" s="47"/>
     </row>
     <row r="738">
-      <c r="D738" s="33"/>
+      <c r="D738" s="47"/>
     </row>
     <row r="739">
-      <c r="D739" s="33"/>
+      <c r="D739" s="47"/>
     </row>
     <row r="740">
-      <c r="D740" s="33"/>
+      <c r="D740" s="47"/>
     </row>
     <row r="741">
-      <c r="D741" s="33"/>
+      <c r="D741" s="47"/>
     </row>
     <row r="742">
-      <c r="D742" s="33"/>
+      <c r="D742" s="47"/>
     </row>
     <row r="743">
-      <c r="D743" s="33"/>
+      <c r="D743" s="47"/>
     </row>
     <row r="744">
-      <c r="D744" s="33"/>
+      <c r="D744" s="47"/>
     </row>
     <row r="745">
-      <c r="D745" s="33"/>
+      <c r="D745" s="47"/>
     </row>
     <row r="746">
-      <c r="D746" s="33"/>
+      <c r="D746" s="47"/>
     </row>
     <row r="747">
-      <c r="D747" s="33"/>
+      <c r="D747" s="47"/>
     </row>
     <row r="748">
-      <c r="D748" s="33"/>
+      <c r="D748" s="47"/>
     </row>
     <row r="749">
-      <c r="D749" s="33"/>
+      <c r="D749" s="47"/>
     </row>
     <row r="750">
-      <c r="D750" s="33"/>
+      <c r="D750" s="47"/>
     </row>
     <row r="751">
-      <c r="D751" s="33"/>
+      <c r="D751" s="47"/>
     </row>
     <row r="752">
-      <c r="D752" s="33"/>
+      <c r="D752" s="47"/>
     </row>
     <row r="753">
-      <c r="D753" s="33"/>
+      <c r="D753" s="47"/>
     </row>
     <row r="754">
-      <c r="D754" s="33"/>
+      <c r="D754" s="47"/>
     </row>
     <row r="755">
-      <c r="D755" s="33"/>
+      <c r="D755" s="47"/>
     </row>
     <row r="756">
-      <c r="D756" s="33"/>
+      <c r="D756" s="47"/>
     </row>
     <row r="757">
-      <c r="D757" s="33"/>
+      <c r="D757" s="47"/>
     </row>
     <row r="758">
-      <c r="D758" s="33"/>
+      <c r="D758" s="47"/>
     </row>
     <row r="759">
-      <c r="D759" s="33"/>
+      <c r="D759" s="47"/>
     </row>
     <row r="760">
-      <c r="D760" s="33"/>
+      <c r="D760" s="47"/>
     </row>
     <row r="761">
-      <c r="D761" s="33"/>
+      <c r="D761" s="47"/>
     </row>
     <row r="762">
-      <c r="D762" s="33"/>
+      <c r="D762" s="47"/>
     </row>
     <row r="763">
-      <c r="D763" s="33"/>
+      <c r="D763" s="47"/>
     </row>
     <row r="764">
-      <c r="D764" s="33"/>
+      <c r="D764" s="47"/>
     </row>
     <row r="765">
-      <c r="D765" s="33"/>
+      <c r="D765" s="47"/>
     </row>
     <row r="766">
-      <c r="D766" s="33"/>
+      <c r="D766" s="47"/>
     </row>
     <row r="767">
-      <c r="D767" s="33"/>
+      <c r="D767" s="47"/>
     </row>
     <row r="768">
-      <c r="D768" s="33"/>
+      <c r="D768" s="47"/>
     </row>
     <row r="769">
-      <c r="D769" s="33"/>
+      <c r="D769" s="47"/>
     </row>
     <row r="770">
-      <c r="D770" s="33"/>
+      <c r="D770" s="47"/>
     </row>
     <row r="771">
-      <c r="D771" s="33"/>
+      <c r="D771" s="47"/>
     </row>
     <row r="772">
-      <c r="D772" s="33"/>
+      <c r="D772" s="47"/>
     </row>
     <row r="773">
-      <c r="D773" s="33"/>
+      <c r="D773" s="47"/>
     </row>
     <row r="774">
-      <c r="D774" s="33"/>
+      <c r="D774" s="47"/>
     </row>
     <row r="775">
-      <c r="D775" s="33"/>
+      <c r="D775" s="47"/>
     </row>
     <row r="776">
-      <c r="D776" s="33"/>
+      <c r="D776" s="47"/>
     </row>
     <row r="777">
-      <c r="D777" s="33"/>
+      <c r="D777" s="47"/>
     </row>
     <row r="778">
-      <c r="D778" s="33"/>
+      <c r="D778" s="47"/>
     </row>
     <row r="779">
-      <c r="D779" s="33"/>
+      <c r="D779" s="47"/>
     </row>
     <row r="780">
-      <c r="D780" s="33"/>
+      <c r="D780" s="47"/>
     </row>
     <row r="781">
-      <c r="D781" s="33"/>
+      <c r="D781" s="47"/>
     </row>
     <row r="782">
-      <c r="D782" s="33"/>
+      <c r="D782" s="47"/>
     </row>
     <row r="783">
-      <c r="D783" s="33"/>
+      <c r="D783" s="47"/>
     </row>
     <row r="784">
-      <c r="D784" s="33"/>
+      <c r="D784" s="47"/>
     </row>
     <row r="785">
-      <c r="D785" s="33"/>
+      <c r="D785" s="47"/>
     </row>
     <row r="786">
-      <c r="D786" s="33"/>
+      <c r="D786" s="47"/>
     </row>
     <row r="787">
-      <c r="D787" s="33"/>
+      <c r="D787" s="47"/>
     </row>
     <row r="788">
-      <c r="D788" s="33"/>
+      <c r="D788" s="47"/>
     </row>
     <row r="789">
-      <c r="D789" s="33"/>
+      <c r="D789" s="47"/>
     </row>
     <row r="790">
-      <c r="D790" s="33"/>
+      <c r="D790" s="47"/>
     </row>
     <row r="791">
-      <c r="D791" s="33"/>
+      <c r="D791" s="47"/>
     </row>
     <row r="792">
-      <c r="D792" s="33"/>
+      <c r="D792" s="47"/>
     </row>
     <row r="793">
-      <c r="D793" s="33"/>
+      <c r="D793" s="47"/>
     </row>
     <row r="794">
-      <c r="D794" s="33"/>
+      <c r="D794" s="47"/>
     </row>
     <row r="795">
-      <c r="D795" s="33"/>
+      <c r="D795" s="47"/>
     </row>
     <row r="796">
-      <c r="D796" s="33"/>
+      <c r="D796" s="47"/>
     </row>
     <row r="797">
-      <c r="D797" s="33"/>
+      <c r="D797" s="47"/>
     </row>
     <row r="798">
-      <c r="D798" s="33"/>
+      <c r="D798" s="47"/>
     </row>
     <row r="799">
-      <c r="D799" s="33"/>
+      <c r="D799" s="47"/>
     </row>
     <row r="800">
-      <c r="D800" s="33"/>
+      <c r="D800" s="47"/>
     </row>
     <row r="801">
-      <c r="D801" s="33"/>
+      <c r="D801" s="47"/>
     </row>
     <row r="802">
-      <c r="D802" s="33"/>
+      <c r="D802" s="47"/>
     </row>
     <row r="803">
-      <c r="D803" s="33"/>
+      <c r="D803" s="47"/>
     </row>
     <row r="804">
-      <c r="D804" s="33"/>
+      <c r="D804" s="47"/>
     </row>
     <row r="805">
-      <c r="D805" s="33"/>
+      <c r="D805" s="47"/>
     </row>
     <row r="806">
-      <c r="D806" s="33"/>
+      <c r="D806" s="47"/>
     </row>
     <row r="807">
-      <c r="D807" s="33"/>
+      <c r="D807" s="47"/>
     </row>
     <row r="808">
-      <c r="D808" s="33"/>
+      <c r="D808" s="47"/>
     </row>
     <row r="809">
-      <c r="D809" s="33"/>
+      <c r="D809" s="47"/>
     </row>
     <row r="810">
-      <c r="D810" s="33"/>
+      <c r="D810" s="47"/>
     </row>
     <row r="811">
-      <c r="D811" s="33"/>
+      <c r="D811" s="47"/>
     </row>
     <row r="812">
-      <c r="D812" s="33"/>
+      <c r="D812" s="47"/>
     </row>
     <row r="813">
-      <c r="D813" s="33"/>
+      <c r="D813" s="47"/>
     </row>
     <row r="814">
-      <c r="D814" s="33"/>
+      <c r="D814" s="47"/>
     </row>
     <row r="815">
-      <c r="D815" s="33"/>
+      <c r="D815" s="47"/>
     </row>
     <row r="816">
-      <c r="D816" s="33"/>
+      <c r="D816" s="47"/>
     </row>
     <row r="817">
-      <c r="D817" s="33"/>
+      <c r="D817" s="47"/>
     </row>
     <row r="818">
-      <c r="D818" s="33"/>
+      <c r="D818" s="47"/>
     </row>
     <row r="819">
-      <c r="D819" s="33"/>
+      <c r="D819" s="47"/>
     </row>
     <row r="820">
-      <c r="D820" s="33"/>
+      <c r="D820" s="47"/>
     </row>
     <row r="821">
-      <c r="D821" s="33"/>
+      <c r="D821" s="47"/>
     </row>
     <row r="822">
-      <c r="D822" s="33"/>
+      <c r="D822" s="47"/>
     </row>
     <row r="823">
-      <c r="D823" s="33"/>
+      <c r="D823" s="47"/>
     </row>
     <row r="824">
-      <c r="D824" s="33"/>
+      <c r="D824" s="47"/>
     </row>
     <row r="825">
-      <c r="D825" s="33"/>
+      <c r="D825" s="47"/>
     </row>
     <row r="826">
-      <c r="D826" s="33"/>
+      <c r="D826" s="47"/>
     </row>
     <row r="827">
-      <c r="D827" s="33"/>
+      <c r="D827" s="47"/>
     </row>
     <row r="828">
-      <c r="D828" s="33"/>
+      <c r="D828" s="47"/>
     </row>
     <row r="829">
-      <c r="D829" s="33"/>
+      <c r="D829" s="47"/>
     </row>
     <row r="830">
-      <c r="D830" s="33"/>
+      <c r="D830" s="47"/>
     </row>
     <row r="831">
-      <c r="D831" s="33"/>
+      <c r="D831" s="47"/>
     </row>
     <row r="832">
-      <c r="D832" s="33"/>
+      <c r="D832" s="47"/>
     </row>
     <row r="833">
-      <c r="D833" s="33"/>
+      <c r="D833" s="47"/>
     </row>
     <row r="834">
-      <c r="D834" s="33"/>
+      <c r="D834" s="47"/>
     </row>
     <row r="835">
-      <c r="D835" s="33"/>
+      <c r="D835" s="47"/>
     </row>
     <row r="836">
-      <c r="D836" s="33"/>
+      <c r="D836" s="47"/>
     </row>
     <row r="837">
-      <c r="D837" s="33"/>
+      <c r="D837" s="47"/>
     </row>
     <row r="838">
-      <c r="D838" s="33"/>
+      <c r="D838" s="47"/>
     </row>
     <row r="839">
-      <c r="D839" s="33"/>
+      <c r="D839" s="47"/>
     </row>
     <row r="840">
-      <c r="D840" s="33"/>
+      <c r="D840" s="47"/>
     </row>
     <row r="841">
-      <c r="D841" s="33"/>
+      <c r="D841" s="47"/>
     </row>
     <row r="842">
-      <c r="D842" s="33"/>
+      <c r="D842" s="47"/>
     </row>
     <row r="843">
-      <c r="D843" s="33"/>
+      <c r="D843" s="47"/>
     </row>
     <row r="844">
-      <c r="D844" s="33"/>
+      <c r="D844" s="47"/>
     </row>
     <row r="845">
-      <c r="D845" s="33"/>
+      <c r="D845" s="47"/>
     </row>
     <row r="846">
-      <c r="D846" s="33"/>
+      <c r="D846" s="47"/>
     </row>
     <row r="847">
-      <c r="D847" s="33"/>
+      <c r="D847" s="47"/>
     </row>
     <row r="848">
-      <c r="D848" s="33"/>
+      <c r="D848" s="47"/>
     </row>
     <row r="849">
-      <c r="D849" s="33"/>
+      <c r="D849" s="47"/>
     </row>
     <row r="850">
-      <c r="D850" s="33"/>
+      <c r="D850" s="47"/>
     </row>
     <row r="851">
-      <c r="D851" s="33"/>
+      <c r="D851" s="47"/>
     </row>
     <row r="852">
-      <c r="D852" s="33"/>
+      <c r="D852" s="47"/>
     </row>
     <row r="853">
-      <c r="D853" s="33"/>
+      <c r="D853" s="47"/>
     </row>
     <row r="854">
-      <c r="D854" s="33"/>
+      <c r="D854" s="47"/>
     </row>
     <row r="855">
-      <c r="D855" s="33"/>
+      <c r="D855" s="47"/>
     </row>
     <row r="856">
-      <c r="D856" s="33"/>
+      <c r="D856" s="47"/>
     </row>
     <row r="857">
-      <c r="D857" s="33"/>
+      <c r="D857" s="47"/>
     </row>
     <row r="858">
-      <c r="D858" s="33"/>
+      <c r="D858" s="47"/>
     </row>
     <row r="859">
-      <c r="D859" s="33"/>
+      <c r="D859" s="47"/>
     </row>
     <row r="860">
-      <c r="D860" s="33"/>
+      <c r="D860" s="47"/>
     </row>
     <row r="861">
-      <c r="D861" s="33"/>
+      <c r="D861" s="47"/>
     </row>
     <row r="862">
-      <c r="D862" s="33"/>
+      <c r="D862" s="47"/>
     </row>
     <row r="863">
-      <c r="D863" s="33"/>
+      <c r="D863" s="47"/>
     </row>
     <row r="864">
-      <c r="D864" s="33"/>
+      <c r="D864" s="47"/>
     </row>
     <row r="865">
-      <c r="D865" s="33"/>
+      <c r="D865" s="47"/>
     </row>
     <row r="866">
-      <c r="D866" s="33"/>
+      <c r="D866" s="47"/>
     </row>
     <row r="867">
-      <c r="D867" s="33"/>
+      <c r="D867" s="47"/>
     </row>
     <row r="868">
-      <c r="D868" s="33"/>
+      <c r="D868" s="47"/>
     </row>
     <row r="869">
-      <c r="D869" s="33"/>
+      <c r="D869" s="47"/>
     </row>
     <row r="870">
-      <c r="D870" s="33"/>
+      <c r="D870" s="47"/>
     </row>
     <row r="871">
-      <c r="D871" s="33"/>
+      <c r="D871" s="47"/>
     </row>
     <row r="872">
-      <c r="D872" s="33"/>
+      <c r="D872" s="47"/>
     </row>
     <row r="873">
-      <c r="D873" s="33"/>
+      <c r="D873" s="47"/>
     </row>
     <row r="874">
-      <c r="D874" s="33"/>
+      <c r="D874" s="47"/>
     </row>
     <row r="875">
-      <c r="D875" s="33"/>
+      <c r="D875" s="47"/>
     </row>
     <row r="876">
-      <c r="D876" s="33"/>
+      <c r="D876" s="47"/>
     </row>
     <row r="877">
-      <c r="D877" s="33"/>
+      <c r="D877" s="47"/>
     </row>
     <row r="878">
-      <c r="D878" s="33"/>
+      <c r="D878" s="47"/>
     </row>
     <row r="879">
-      <c r="D879" s="33"/>
+      <c r="D879" s="47"/>
     </row>
     <row r="880">
-      <c r="D880" s="33"/>
+      <c r="D880" s="47"/>
     </row>
     <row r="881">
-      <c r="D881" s="33"/>
+      <c r="D881" s="47"/>
     </row>
     <row r="882">
-      <c r="D882" s="33"/>
+      <c r="D882" s="47"/>
     </row>
     <row r="883">
-      <c r="D883" s="33"/>
+      <c r="D883" s="47"/>
     </row>
     <row r="884">
-      <c r="D884" s="33"/>
+      <c r="D884" s="47"/>
     </row>
     <row r="885">
-      <c r="D885" s="33"/>
+      <c r="D885" s="47"/>
     </row>
     <row r="886">
-      <c r="D886" s="33"/>
+      <c r="D886" s="47"/>
     </row>
     <row r="887">
-      <c r="D887" s="33"/>
+      <c r="D887" s="47"/>
     </row>
     <row r="888">
-      <c r="D888" s="33"/>
+      <c r="D888" s="47"/>
     </row>
     <row r="889">
-      <c r="D889" s="33"/>
+      <c r="D889" s="47"/>
     </row>
     <row r="890">
-      <c r="D890" s="33"/>
+      <c r="D890" s="47"/>
     </row>
     <row r="891">
-      <c r="D891" s="33"/>
+      <c r="D891" s="47"/>
     </row>
     <row r="892">
-      <c r="D892" s="33"/>
+      <c r="D892" s="47"/>
     </row>
     <row r="893">
-      <c r="D893" s="33"/>
+      <c r="D893" s="47"/>
     </row>
     <row r="894">
-      <c r="D894" s="33"/>
+      <c r="D894" s="47"/>
     </row>
     <row r="895">
-      <c r="D895" s="33"/>
+      <c r="D895" s="47"/>
     </row>
     <row r="896">
-      <c r="D896" s="33"/>
+      <c r="D896" s="47"/>
     </row>
     <row r="897">
-      <c r="D897" s="33"/>
+      <c r="D897" s="47"/>
     </row>
     <row r="898">
-      <c r="D898" s="33"/>
+      <c r="D898" s="47"/>
     </row>
     <row r="899">
-      <c r="D899" s="33"/>
+      <c r="D899" s="47"/>
     </row>
     <row r="900">
-      <c r="D900" s="33"/>
+      <c r="D900" s="47"/>
     </row>
     <row r="901">
-      <c r="D901" s="33"/>
+      <c r="D901" s="47"/>
     </row>
     <row r="902">
-      <c r="D902" s="33"/>
+      <c r="D902" s="47"/>
     </row>
     <row r="903">
-      <c r="D903" s="33"/>
+      <c r="D903" s="47"/>
     </row>
     <row r="904">
-      <c r="D904" s="33"/>
+      <c r="D904" s="47"/>
     </row>
     <row r="905">
-      <c r="D905" s="33"/>
+      <c r="D905" s="47"/>
     </row>
     <row r="906">
-      <c r="D906" s="33"/>
+      <c r="D906" s="47"/>
     </row>
     <row r="907">
-      <c r="D907" s="33"/>
+      <c r="D907" s="47"/>
     </row>
     <row r="908">
-      <c r="D908" s="33"/>
+      <c r="D908" s="47"/>
     </row>
     <row r="909">
-      <c r="D909" s="33"/>
+      <c r="D909" s="47"/>
     </row>
     <row r="910">
-      <c r="D910" s="33"/>
+      <c r="D910" s="47"/>
     </row>
     <row r="911">
-      <c r="D911" s="33"/>
+      <c r="D911" s="47"/>
     </row>
     <row r="912">
-      <c r="D912" s="33"/>
+      <c r="D912" s="47"/>
     </row>
     <row r="913">
-      <c r="D913" s="33"/>
+      <c r="D913" s="47"/>
     </row>
     <row r="914">
-      <c r="D914" s="33"/>
+      <c r="D914" s="47"/>
     </row>
     <row r="915">
-      <c r="D915" s="33"/>
+      <c r="D915" s="47"/>
     </row>
     <row r="916">
-      <c r="D916" s="33"/>
+      <c r="D916" s="47"/>
     </row>
     <row r="917">
-      <c r="D917" s="33"/>
+      <c r="D917" s="47"/>
     </row>
     <row r="918">
-      <c r="D918" s="33"/>
+      <c r="D918" s="47"/>
     </row>
     <row r="919">
-      <c r="D919" s="33"/>
+      <c r="D919" s="47"/>
     </row>
     <row r="920">
-      <c r="D920" s="33"/>
+      <c r="D920" s="47"/>
     </row>
     <row r="921">
-      <c r="D921" s="33"/>
+      <c r="D921" s="47"/>
     </row>
     <row r="922">
-      <c r="D922" s="33"/>
+      <c r="D922" s="47"/>
     </row>
     <row r="923">
-      <c r="D923" s="33"/>
+      <c r="D923" s="47"/>
     </row>
     <row r="924">
-      <c r="D924" s="33"/>
+      <c r="D924" s="47"/>
     </row>
     <row r="925">
-      <c r="D925" s="33"/>
+      <c r="D925" s="47"/>
     </row>
     <row r="926">
-      <c r="D926" s="33"/>
+      <c r="D926" s="47"/>
     </row>
     <row r="927">
-      <c r="D927" s="33"/>
+      <c r="D927" s="47"/>
     </row>
     <row r="928">
-      <c r="D928" s="33"/>
+      <c r="D928" s="47"/>
     </row>
     <row r="929">
-      <c r="D929" s="33"/>
+      <c r="D929" s="47"/>
     </row>
     <row r="930">
-      <c r="D930" s="33"/>
+      <c r="D930" s="47"/>
     </row>
     <row r="931">
-      <c r="D931" s="33"/>
+      <c r="D931" s="47"/>
     </row>
     <row r="932">
-      <c r="D932" s="33"/>
+      <c r="D932" s="47"/>
     </row>
     <row r="933">
-      <c r="D933" s="33"/>
+      <c r="D933" s="47"/>
     </row>
     <row r="934">
-      <c r="D934" s="33"/>
+      <c r="D934" s="47"/>
     </row>
     <row r="935">
-      <c r="D935" s="33"/>
+      <c r="D935" s="47"/>
     </row>
     <row r="936">
-      <c r="D936" s="33"/>
+      <c r="D936" s="47"/>
     </row>
     <row r="937">
-      <c r="D937" s="33"/>
+      <c r="D937" s="47"/>
     </row>
     <row r="938">
-      <c r="D938" s="33"/>
+      <c r="D938" s="47"/>
     </row>
     <row r="939">
-      <c r="D939" s="33"/>
+      <c r="D939" s="47"/>
     </row>
     <row r="940">
-      <c r="D940" s="33"/>
+      <c r="D940" s="47"/>
     </row>
     <row r="941">
-      <c r="D941" s="33"/>
+      <c r="D941" s="47"/>
     </row>
     <row r="942">
-      <c r="D942" s="33"/>
+      <c r="D942" s="47"/>
     </row>
     <row r="943">
-      <c r="D943" s="33"/>
+      <c r="D943" s="47"/>
     </row>
     <row r="944">
-      <c r="D944" s="33"/>
+      <c r="D944" s="47"/>
     </row>
     <row r="945">
-      <c r="D945" s="33"/>
+      <c r="D945" s="47"/>
     </row>
     <row r="946">
-      <c r="D946" s="33"/>
+      <c r="D946" s="47"/>
     </row>
     <row r="947">
-      <c r="D947" s="33"/>
+      <c r="D947" s="47"/>
     </row>
     <row r="948">
-      <c r="D948" s="33"/>
+      <c r="D948" s="47"/>
     </row>
     <row r="949">
-      <c r="D949" s="33"/>
+      <c r="D949" s="47"/>
     </row>
     <row r="950">
-      <c r="D950" s="33"/>
+      <c r="D950" s="47"/>
     </row>
     <row r="951">
-      <c r="D951" s="33"/>
+      <c r="D951" s="47"/>
     </row>
     <row r="952">
-      <c r="D952" s="33"/>
+      <c r="D952" s="47"/>
     </row>
     <row r="953">
-      <c r="D953" s="33"/>
+      <c r="D953" s="47"/>
     </row>
     <row r="954">
-      <c r="D954" s="33"/>
+      <c r="D954" s="47"/>
     </row>
     <row r="955">
-      <c r="D955" s="33"/>
+      <c r="D955" s="47"/>
     </row>
     <row r="956">
-      <c r="D956" s="33"/>
+      <c r="D956" s="47"/>
     </row>
     <row r="957">
-      <c r="D957" s="33"/>
+      <c r="D957" s="47"/>
     </row>
     <row r="958">
-      <c r="D958" s="33"/>
+      <c r="D958" s="47"/>
     </row>
     <row r="959">
-      <c r="D959" s="33"/>
+      <c r="D959" s="47"/>
     </row>
     <row r="960">
-      <c r="D960" s="33"/>
+      <c r="D960" s="47"/>
     </row>
     <row r="961">
-      <c r="D961" s="33"/>
+      <c r="D961" s="47"/>
     </row>
     <row r="962">
-      <c r="D962" s="33"/>
+      <c r="D962" s="47"/>
     </row>
     <row r="963">
-      <c r="D963" s="33"/>
+      <c r="D963" s="47"/>
     </row>
     <row r="964">
-      <c r="D964" s="33"/>
+      <c r="D964" s="47"/>
     </row>
     <row r="965">
-      <c r="D965" s="33"/>
+      <c r="D965" s="47"/>
     </row>
     <row r="966">
-      <c r="D966" s="33"/>
+      <c r="D966" s="47"/>
     </row>
     <row r="967">
-      <c r="D967" s="33"/>
+      <c r="D967" s="47"/>
     </row>
     <row r="968">
-      <c r="D968" s="33"/>
+      <c r="D968" s="47"/>
     </row>
     <row r="969">
-      <c r="D969" s="33"/>
+      <c r="D969" s="47"/>
     </row>
     <row r="970">
-      <c r="D970" s="33"/>
+      <c r="D970" s="47"/>
     </row>
     <row r="971">
-      <c r="D971" s="33"/>
+      <c r="D971" s="47"/>
     </row>
     <row r="972">
-      <c r="D972" s="33"/>
+      <c r="D972" s="47"/>
     </row>
     <row r="973">
-      <c r="D973" s="33"/>
+      <c r="D973" s="47"/>
     </row>
     <row r="974">
-      <c r="D974" s="33"/>
+      <c r="D974" s="47"/>
     </row>
     <row r="975">
-      <c r="D975" s="33"/>
+      <c r="D975" s="47"/>
     </row>
     <row r="976">
-      <c r="D976" s="33"/>
+      <c r="D976" s="47"/>
     </row>
     <row r="977">
-      <c r="D977" s="33"/>
+      <c r="D977" s="47"/>
     </row>
     <row r="978">
-      <c r="D978" s="33"/>
+      <c r="D978" s="47"/>
     </row>
     <row r="979">
-      <c r="D979" s="33"/>
+      <c r="D979" s="47"/>
     </row>
     <row r="980">
-      <c r="D980" s="33"/>
+      <c r="D980" s="47"/>
     </row>
     <row r="981">
-      <c r="D981" s="33"/>
+      <c r="D981" s="47"/>
     </row>
     <row r="982">
-      <c r="D982" s="33"/>
+      <c r="D982" s="47"/>
     </row>
     <row r="983">
-      <c r="D983" s="33"/>
+      <c r="D983" s="47"/>
     </row>
     <row r="984">
-      <c r="D984" s="33"/>
+      <c r="D984" s="47"/>
     </row>
     <row r="985">
-      <c r="D985" s="33"/>
+      <c r="D985" s="47"/>
     </row>
     <row r="986">
-      <c r="D986" s="33"/>
+      <c r="D986" s="47"/>
     </row>
     <row r="987">
-      <c r="D987" s="33"/>
+      <c r="D987" s="47"/>
     </row>
     <row r="988">
-      <c r="D988" s="33"/>
+      <c r="D988" s="47"/>
     </row>
     <row r="989">
-      <c r="D989" s="33"/>
+      <c r="D989" s="47"/>
     </row>
     <row r="990">
-      <c r="D990" s="33"/>
+      <c r="D990" s="47"/>
     </row>
     <row r="991">
-      <c r="D991" s="33"/>
+      <c r="D991" s="47"/>
     </row>
     <row r="992">
-      <c r="D992" s="33"/>
+      <c r="D992" s="47"/>
     </row>
     <row r="993">
-      <c r="D993" s="33"/>
+      <c r="D993" s="47"/>
     </row>
     <row r="994">
-      <c r="D994" s="33"/>
+      <c r="D994" s="47"/>
     </row>
     <row r="995">
-      <c r="D995" s="33"/>
+      <c r="D995" s="47"/>
     </row>
     <row r="996">
-      <c r="D996" s="33"/>
+      <c r="D996" s="47"/>
     </row>
     <row r="997">
-      <c r="D997" s="33"/>
+      <c r="D997" s="47"/>
     </row>
     <row r="998">
-      <c r="D998" s="33"/>
+      <c r="D998" s="47"/>
     </row>
     <row r="999">
-      <c r="D999" s="33"/>
+      <c r="D999" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D999">
